--- a/teaching/traditional_assets/database/data/turkey/turkey_retail_special_lines.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_retail_special_lines.xlsx
@@ -644,10 +644,10 @@
         <v>0.01055825242718447</v>
       </c>
       <c r="X2">
-        <v>0.140604159325999</v>
+        <v>0.1403640994434108</v>
       </c>
       <c r="Y2">
-        <v>-0.1300459068988145</v>
+        <v>-0.1298058470162263</v>
       </c>
       <c r="Z2">
         <v>15.6718979892104</v>
@@ -656,10 +656,10 @@
         <v>0.4230014713094654</v>
       </c>
       <c r="AB2">
-        <v>0.1171617306482264</v>
+        <v>0.1153960590335753</v>
       </c>
       <c r="AC2">
-        <v>0.305839740661239</v>
+        <v>0.3076054122758901</v>
       </c>
       <c r="AD2">
         <v>87.40000000000001</v>
@@ -772,10 +772,10 @@
         <v>0.01055825242718447</v>
       </c>
       <c r="X3">
-        <v>0.140604159325999</v>
+        <v>0.1403640994434108</v>
       </c>
       <c r="Y3">
-        <v>-0.1300459068988145</v>
+        <v>-0.1298058470162263</v>
       </c>
       <c r="Z3">
         <v>15.6718979892104</v>
@@ -784,10 +784,10 @@
         <v>0.4230014713094654</v>
       </c>
       <c r="AB3">
-        <v>0.1171617306482264</v>
+        <v>0.1153960590335753</v>
       </c>
       <c r="AC3">
-        <v>0.305839740661239</v>
+        <v>0.3076054122758901</v>
       </c>
       <c r="AD3">
         <v>87.40000000000001</v>
@@ -1087,37 +1087,37 @@
         <v>0.315865558366462</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G2">
         <v>189.3</v>
       </c>
       <c r="H2">
-        <v>78.5887498087324</v>
+        <v>90.2171797980882</v>
       </c>
       <c r="I2">
         <v>242.5</v>
       </c>
       <c r="J2">
-        <v>307.253749808732</v>
+        <v>307.814179798088</v>
       </c>
       <c r="K2">
         <v>87.40000000000001</v>
       </c>
       <c r="L2">
-        <v>262.865</v>
+        <v>251.797</v>
       </c>
       <c r="M2">
-        <v>0.117161730648226</v>
+        <v>0.115396059033575</v>
       </c>
       <c r="N2">
-        <v>0.0949346352429996</v>
+        <v>0.0928838502713507</v>
       </c>
       <c r="O2">
-        <v>0.066387683180236</v>
+        <v>0.061317683180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1126,23 +1126,23 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="S2">
-        <v>0.140604159325999</v>
+        <v>0.140364099443411</v>
       </c>
       <c r="T2">
-        <v>1.46743070485999</v>
+        <v>0.865634114126119</v>
       </c>
       <c r="U2">
         <v>1.30415419112745</v>
       </c>
       <c r="V2">
-        <v>15.168967748642</v>
+        <v>8.520958284424699</v>
       </c>
       <c r="W2">
-        <v>4.510174463352969</v>
+        <v>6.493608303702557</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>189.3</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08511241433363595</v>
+        <v>0.07861241433363596</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.107559210168141</v>
+        <v>0.105661678258753</v>
       </c>
       <c r="C2">
-        <v>300.990756351301</v>
+        <v>301.1971588348192</v>
       </c>
       <c r="D2">
-        <v>266.790756351301</v>
+        <v>266.9971588348192</v>
       </c>
       <c r="E2">
         <v>-87.40000000000001</v>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.107559210168141</v>
+        <v>0.105661678258753</v>
       </c>
       <c r="T2">
         <v>0.9588475188774981</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1434,13 +1434,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1073763999057711</v>
+        <v>0.1054830425665838</v>
       </c>
       <c r="C3">
-        <v>298.7334912656793</v>
+        <v>298.9260385762264</v>
       </c>
       <c r="D3">
-        <v>267.3004912656793</v>
+        <v>267.4930385762264</v>
       </c>
       <c r="E3">
         <v>-84.63300000000001</v>
@@ -1467,37 +1467,37 @@
         <v>34.5</v>
       </c>
       <c r="M3">
-        <v>0.06281090000000002</v>
+        <v>0.0448254</v>
       </c>
       <c r="N3">
-        <v>34.4371891</v>
+        <v>34.4551746</v>
       </c>
       <c r="O3">
-        <v>7.576181601999999</v>
+        <v>7.580138412</v>
       </c>
       <c r="P3">
-        <v>26.861007498</v>
+        <v>26.875036188</v>
       </c>
       <c r="Q3">
-        <v>31.261007498</v>
+        <v>31.275036188</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1082821615209809</v>
+        <v>0.1064208914813977</v>
       </c>
       <c r="T3">
         <v>0.9664020750868358</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>549.2677226404969</v>
+        <v>769.6529199962521</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1516,13 +1516,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1071935896434012</v>
+        <v>0.1053044068744145</v>
       </c>
       <c r="C4">
-        <v>296.4781777249446</v>
+        <v>296.656763687523</v>
       </c>
       <c r="D4">
-        <v>267.8121777249446</v>
+        <v>267.990763687523</v>
       </c>
       <c r="E4">
         <v>-81.866</v>
@@ -1549,37 +1549,37 @@
         <v>34.5</v>
       </c>
       <c r="M4">
-        <v>0.1256218</v>
+        <v>0.0896508</v>
       </c>
       <c r="N4">
-        <v>34.3743782</v>
+        <v>34.4103492</v>
       </c>
       <c r="O4">
-        <v>7.562363204</v>
+        <v>7.570276824</v>
       </c>
       <c r="P4">
-        <v>26.812014996</v>
+        <v>26.840072376</v>
       </c>
       <c r="Q4">
-        <v>31.212014996</v>
+        <v>31.240072376</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1090198669830625</v>
+        <v>0.1071955988514434</v>
       </c>
       <c r="T4">
         <v>0.9741108059126908</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>274.6338613202485</v>
+        <v>384.826459998126</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1598,13 +1598,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1070107793810313</v>
+        <v>0.1051257711822453</v>
       </c>
       <c r="C5">
-        <v>294.2248269579685</v>
+        <v>294.3893444889677</v>
       </c>
       <c r="D5">
-        <v>268.3258269579685</v>
+        <v>268.4903444889677</v>
       </c>
       <c r="E5">
         <v>-79.099</v>
@@ -1631,37 +1631,37 @@
         <v>34.5</v>
       </c>
       <c r="M5">
-        <v>0.1884327000000001</v>
+        <v>0.1344762</v>
       </c>
       <c r="N5">
-        <v>34.3115673</v>
+        <v>34.3655238</v>
       </c>
       <c r="O5">
-        <v>7.548544806</v>
+        <v>7.560415236</v>
       </c>
       <c r="P5">
-        <v>26.763022494</v>
+        <v>26.805108564</v>
       </c>
       <c r="Q5">
-        <v>31.163022494</v>
+        <v>31.205108564</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1097727828670426</v>
+        <v>0.107986279569325</v>
       </c>
       <c r="T5">
         <v>0.9819784796421718</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>183.0892408801656</v>
+        <v>256.550973332084</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1680,13 +1680,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1068279691186614</v>
+        <v>0.104947135490076</v>
       </c>
       <c r="C6">
-        <v>291.973450279934</v>
+        <v>292.1237913779185</v>
       </c>
       <c r="D6">
-        <v>268.841450279934</v>
+        <v>268.9917913779185</v>
       </c>
       <c r="E6">
         <v>-76.33200000000001</v>
@@ -1713,37 +1713,37 @@
         <v>34.5</v>
       </c>
       <c r="M6">
-        <v>0.2512436000000001</v>
+        <v>0.1793016</v>
       </c>
       <c r="N6">
-        <v>34.2487564</v>
+        <v>34.3206984</v>
       </c>
       <c r="O6">
-        <v>7.534726407999999</v>
+        <v>7.550553647999999</v>
       </c>
       <c r="P6">
-        <v>26.714029992</v>
+        <v>26.770144752</v>
       </c>
       <c r="Q6">
-        <v>31.114029992</v>
+        <v>31.170144752</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1105413844986056</v>
+        <v>0.1087934328021625</v>
       </c>
       <c r="T6">
         <v>0.9900100632410167</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>137.3169306601242</v>
+        <v>192.413229999063</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1066451588562915</v>
+        <v>0.1047684997979068</v>
       </c>
       <c r="C7">
-        <v>289.7240590931656</v>
+        <v>289.8601148295529</v>
       </c>
       <c r="D7">
-        <v>269.3590590931656</v>
+        <v>269.4951148295528</v>
       </c>
       <c r="E7">
         <v>-73.565</v>
@@ -1795,37 +1795,37 @@
         <v>34.5</v>
       </c>
       <c r="M7">
-        <v>0.3140545000000001</v>
+        <v>0.224127</v>
       </c>
       <c r="N7">
-        <v>34.1859455</v>
+        <v>34.275873</v>
       </c>
       <c r="O7">
-        <v>7.52090801</v>
+        <v>7.54069206</v>
       </c>
       <c r="P7">
-        <v>26.66503749</v>
+        <v>26.73518094</v>
       </c>
       <c r="Q7">
-        <v>31.06503749</v>
+        <v>31.13518094</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1113261672171489</v>
+        <v>0.1096175787346387</v>
       </c>
       <c r="T7">
         <v>0.9982107328103639</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>109.8535445280994</v>
+        <v>153.9305839992504</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1844,13 +1844,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1064623485939216</v>
+        <v>0.1045898641057375</v>
       </c>
       <c r="C8">
-        <v>287.4766648879704</v>
+        <v>287.5983253975982</v>
       </c>
       <c r="D8">
-        <v>269.8786648879704</v>
+        <v>270.0003253975982</v>
       </c>
       <c r="E8">
         <v>-70.798</v>
@@ -1877,37 +1877,37 @@
         <v>34.5</v>
       </c>
       <c r="M8">
-        <v>0.3768654000000001</v>
+        <v>0.2689524</v>
       </c>
       <c r="N8">
-        <v>34.1231346</v>
+        <v>34.2310476</v>
       </c>
       <c r="O8">
-        <v>7.507089612</v>
+        <v>7.530830471999999</v>
       </c>
       <c r="P8">
-        <v>26.616044988</v>
+        <v>26.700217128</v>
       </c>
       <c r="Q8">
-        <v>31.016044988</v>
+        <v>31.100217128</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1121276474403421</v>
+        <v>0.1104592596869548</v>
       </c>
       <c r="T8">
         <v>1.006585884710973</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>91.54462044008282</v>
+        <v>128.275486666042</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1062795383315517</v>
+        <v>0.1044112284135682</v>
       </c>
       <c r="C9">
-        <v>285.2312792434882</v>
+        <v>285.3384337150682</v>
       </c>
       <c r="D9">
-        <v>270.4002792434882</v>
+        <v>270.5074337150683</v>
       </c>
       <c r="E9">
         <v>-68.03100000000001</v>
@@ -1959,37 +1959,37 @@
         <v>34.5</v>
       </c>
       <c r="M9">
-        <v>0.4396763000000001</v>
+        <v>0.3137778000000001</v>
       </c>
       <c r="N9">
-        <v>34.0603237</v>
+        <v>34.1862222</v>
       </c>
       <c r="O9">
-        <v>7.493271214</v>
+        <v>7.520968884000001</v>
       </c>
       <c r="P9">
-        <v>26.567052486</v>
+        <v>26.665253316</v>
       </c>
       <c r="Q9">
-        <v>30.967052486</v>
+        <v>31.065253316</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1129463637973674</v>
+        <v>0.1113190413049121</v>
       </c>
       <c r="T9">
         <v>1.015141147405145</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>78.466817520071</v>
+        <v>109.9504171423217</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1060967280691818</v>
+        <v>0.104232592721399</v>
       </c>
       <c r="C10">
-        <v>282.9879138285514</v>
+        <v>283.0804504950105</v>
       </c>
       <c r="D10">
-        <v>270.9239138285515</v>
+        <v>271.0164504950105</v>
       </c>
       <c r="E10">
         <v>-65.26400000000001</v>
@@ -2041,37 +2041,37 @@
         <v>34.5</v>
       </c>
       <c r="M10">
-        <v>0.5024872000000001</v>
+        <v>0.3586032</v>
       </c>
       <c r="N10">
-        <v>33.9975128</v>
+        <v>34.1413968</v>
       </c>
       <c r="O10">
-        <v>7.479452816</v>
+        <v>7.511107296</v>
       </c>
       <c r="P10">
-        <v>26.518059984</v>
+        <v>26.630289504</v>
       </c>
       <c r="Q10">
-        <v>30.918059984</v>
+        <v>31.030289504</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1137828783360671</v>
+        <v>0.1121975138276076</v>
       </c>
       <c r="T10">
         <v>1.023882394070928</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>68.65846533006213</v>
+        <v>96.20661499953152</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1059139178068118</v>
+        <v>0.1040539570292297</v>
       </c>
       <c r="C11">
-        <v>280.7465804025556</v>
+        <v>280.8243865312596</v>
       </c>
       <c r="D11">
-        <v>271.4495804025556</v>
+        <v>271.5273865312597</v>
       </c>
       <c r="E11">
         <v>-62.497</v>
@@ -2123,37 +2123,37 @@
         <v>34.5</v>
       </c>
       <c r="M11">
-        <v>0.5652981000000001</v>
+        <v>0.4034286</v>
       </c>
       <c r="N11">
-        <v>33.9347019</v>
+        <v>34.0965714</v>
       </c>
       <c r="O11">
-        <v>7.465634418</v>
+        <v>7.501245708000001</v>
       </c>
       <c r="P11">
-        <v>26.469067482</v>
+        <v>26.595325692</v>
       </c>
       <c r="Q11">
-        <v>30.869067482</v>
+        <v>30.995325692</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1146377778096833</v>
+        <v>0.113095293438714</v>
       </c>
       <c r="T11">
         <v>1.032815756048048</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>61.02974696005522</v>
+        <v>85.51699111069468</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1057311075444419</v>
+        <v>0.1038753213370605</v>
       </c>
       <c r="C12">
-        <v>278.5072908163393</v>
+        <v>278.5702526992005</v>
       </c>
       <c r="D12">
-        <v>271.9772908163393</v>
+        <v>272.0402526992006</v>
       </c>
       <c r="E12">
         <v>-59.73</v>
@@ -2205,37 +2205,37 @@
         <v>34.5</v>
       </c>
       <c r="M12">
-        <v>0.6281090000000001</v>
+        <v>0.448254</v>
       </c>
       <c r="N12">
-        <v>33.871891</v>
+        <v>34.051746</v>
       </c>
       <c r="O12">
-        <v>7.45181602</v>
+        <v>7.49138412</v>
       </c>
       <c r="P12">
-        <v>26.42007498</v>
+        <v>26.56036188</v>
       </c>
       <c r="Q12">
-        <v>30.82007498</v>
+        <v>30.96036188</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1155116750493799</v>
+        <v>0.114013023707845</v>
       </c>
       <c r="T12">
         <v>1.041947637180215</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>54.9267722640497</v>
+        <v>76.96529199962521</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.105548297282072</v>
+        <v>0.1036966856448912</v>
       </c>
       <c r="C13">
-        <v>276.2700570130748</v>
+        <v>276.3180599565404</v>
       </c>
       <c r="D13">
-        <v>272.5070570130749</v>
+        <v>272.5550599565404</v>
       </c>
       <c r="E13">
         <v>-56.963</v>
@@ -2287,37 +2287,37 @@
         <v>34.5</v>
       </c>
       <c r="M13">
-        <v>0.6909199000000001</v>
+        <v>0.4930794000000001</v>
       </c>
       <c r="N13">
-        <v>33.8090801</v>
+        <v>34.0069206</v>
       </c>
       <c r="O13">
-        <v>7.437997622000001</v>
+        <v>7.481522532000001</v>
       </c>
       <c r="P13">
-        <v>26.371082478</v>
+        <v>26.525398068</v>
       </c>
       <c r="Q13">
-        <v>30.771082478</v>
+        <v>30.925398068</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1164052104292944</v>
+        <v>0.1149513771290912</v>
       </c>
       <c r="T13">
         <v>1.05128472912434</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>49.93342933095428</v>
+        <v>69.96844727238656</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1053654870197021</v>
+        <v>0.103518049952722</v>
       </c>
       <c r="C14">
-        <v>274.0348910291697</v>
+        <v>274.0678193440888</v>
       </c>
       <c r="D14">
-        <v>273.0388910291697</v>
+        <v>273.0718193440888</v>
       </c>
       <c r="E14">
         <v>-54.196</v>
@@ -2369,37 +2369,37 @@
         <v>34.5</v>
       </c>
       <c r="M14">
-        <v>0.7537308000000003</v>
+        <v>0.5379048000000001</v>
       </c>
       <c r="N14">
-        <v>33.7462692</v>
+        <v>33.9620952</v>
       </c>
       <c r="O14">
-        <v>7.424179224</v>
+        <v>7.471660944</v>
       </c>
       <c r="P14">
-        <v>26.322089976</v>
+        <v>26.490434256</v>
       </c>
       <c r="Q14">
-        <v>30.722089976</v>
+        <v>30.890434256</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1173190534314797</v>
+        <v>0.1159110567644568</v>
       </c>
       <c r="T14">
         <v>1.060834027703559</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>45.77231022004141</v>
+        <v>64.13774333302101</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1051826767573322</v>
+        <v>0.1033394142605527</v>
       </c>
       <c r="C15">
-        <v>271.8018049951772</v>
+        <v>271.8195419865469</v>
       </c>
       <c r="D15">
-        <v>273.5728049951773</v>
+        <v>273.590541986547</v>
       </c>
       <c r="E15">
         <v>-51.429</v>
@@ -2451,37 +2451,37 @@
         <v>34.5</v>
       </c>
       <c r="M15">
-        <v>0.8165417000000001</v>
+        <v>0.5827302</v>
       </c>
       <c r="N15">
-        <v>33.6834583</v>
+        <v>33.9172698</v>
       </c>
       <c r="O15">
-        <v>7.410360826</v>
+        <v>7.461799356</v>
       </c>
       <c r="P15">
-        <v>26.273097474</v>
+        <v>26.455470444</v>
       </c>
       <c r="Q15">
-        <v>30.673097474</v>
+        <v>30.855470444</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1182539043187726</v>
+        <v>0.1168927980006353</v>
       </c>
       <c r="T15">
         <v>1.070602850388048</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>42.25136328003823</v>
+        <v>59.20407076894247</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2500,13 +2500,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1049998664949623</v>
+        <v>0.1031607785683834</v>
       </c>
       <c r="C16">
-        <v>269.57081113672</v>
+        <v>269.5732390933062</v>
       </c>
       <c r="D16">
-        <v>274.10881113672</v>
+        <v>274.1112390933062</v>
       </c>
       <c r="E16">
         <v>-48.662</v>
@@ -2533,37 +2533,37 @@
         <v>34.5</v>
       </c>
       <c r="M16">
-        <v>0.8793526000000002</v>
+        <v>0.6275556000000001</v>
       </c>
       <c r="N16">
-        <v>33.6206474</v>
+        <v>33.8724444</v>
       </c>
       <c r="O16">
-        <v>7.396542428000001</v>
+        <v>7.451937768</v>
       </c>
       <c r="P16">
-        <v>26.224104972</v>
+        <v>26.420506632</v>
       </c>
       <c r="Q16">
-        <v>30.624104972</v>
+        <v>30.820506632</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1192104959243747</v>
+        <v>0.1178973704283528</v>
       </c>
       <c r="T16">
         <v>1.080598854995432</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>39.2334087600355</v>
+        <v>54.97520857116086</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2582,13 +2582,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1048170562325924</v>
+        <v>0.1029821428762142</v>
       </c>
       <c r="C17">
-        <v>267.3419217754217</v>
+        <v>267.3289219592554</v>
       </c>
       <c r="D17">
-        <v>274.6469217754217</v>
+        <v>274.6339219592554</v>
       </c>
       <c r="E17">
         <v>-45.895</v>
@@ -2615,37 +2615,37 @@
         <v>34.5</v>
       </c>
       <c r="M17">
-        <v>0.9421635000000002</v>
+        <v>0.672381</v>
       </c>
       <c r="N17">
-        <v>33.5578365</v>
+        <v>33.827619</v>
       </c>
       <c r="O17">
-        <v>7.38272403</v>
+        <v>7.44207618</v>
       </c>
       <c r="P17">
-        <v>26.17511247</v>
+        <v>26.38554282</v>
       </c>
       <c r="Q17">
-        <v>30.57511247</v>
+        <v>30.78554282</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1201895955677557</v>
+        <v>0.1189255798543696</v>
       </c>
       <c r="T17">
         <v>1.090830059711224</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>36.61784817603314</v>
+        <v>51.31019466641681</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2664,13 +2664,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1046342459702225</v>
+        <v>0.1028035071840449</v>
       </c>
       <c r="C18">
-        <v>265.1151493298528</v>
+        <v>265.0866019655977</v>
       </c>
       <c r="D18">
-        <v>275.1871493298528</v>
+        <v>275.1586019655977</v>
       </c>
       <c r="E18">
         <v>-43.128</v>
@@ -2697,37 +2697,37 @@
         <v>34.5</v>
       </c>
       <c r="M18">
-        <v>1.0049744</v>
+        <v>0.7172064</v>
       </c>
       <c r="N18">
-        <v>33.4950256</v>
+        <v>33.7827936</v>
       </c>
       <c r="O18">
-        <v>7.368905632</v>
+        <v>7.432214591999999</v>
       </c>
       <c r="P18">
-        <v>26.126119968</v>
+        <v>26.350579008</v>
       </c>
       <c r="Q18">
-        <v>30.526119968</v>
+        <v>30.750579008</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1211920071074077</v>
+        <v>0.1199782704571963</v>
       </c>
       <c r="T18">
         <v>1.101304864539298</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>34.32923266503106</v>
+        <v>48.10330749976576</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1044514357078526</v>
+        <v>0.1026248714918757</v>
       </c>
       <c r="C19">
-        <v>262.8905063164848</v>
+        <v>262.8462905806763</v>
       </c>
       <c r="D19">
-        <v>275.7295063164848</v>
+        <v>275.6852905806763</v>
       </c>
       <c r="E19">
         <v>-40.361</v>
@@ -2779,37 +2779,37 @@
         <v>34.5</v>
       </c>
       <c r="M19">
-        <v>1.0677853</v>
+        <v>0.7620318000000001</v>
       </c>
       <c r="N19">
-        <v>33.4322147</v>
+        <v>33.7379682</v>
       </c>
       <c r="O19">
-        <v>7.355087234000001</v>
+        <v>7.422353004</v>
       </c>
       <c r="P19">
-        <v>26.077127466</v>
+        <v>26.315615196</v>
       </c>
       <c r="Q19">
-        <v>30.477127466</v>
+        <v>30.71561519599999</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1222185731419911</v>
+        <v>0.1210563270986454</v>
       </c>
       <c r="T19">
         <v>1.112032074302988</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>32.3098660376763</v>
+        <v>45.27370117625011</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2828,13 +2828,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1042686254454827</v>
+        <v>0.1024462357997064</v>
       </c>
       <c r="C20">
-        <v>260.6680053506571</v>
+        <v>260.6079993608107</v>
       </c>
       <c r="D20">
-        <v>276.2740053506571</v>
+        <v>276.2139993608106</v>
       </c>
       <c r="E20">
         <v>-37.594</v>
@@ -2861,37 +2861,37 @@
         <v>34.5</v>
       </c>
       <c r="M20">
-        <v>1.1305962</v>
+        <v>0.8068572000000001</v>
       </c>
       <c r="N20">
-        <v>33.3694038</v>
+        <v>33.6931428</v>
       </c>
       <c r="O20">
-        <v>7.341268836</v>
+        <v>7.412491415999999</v>
       </c>
       <c r="P20">
-        <v>26.028134964</v>
+        <v>26.280651384</v>
       </c>
       <c r="Q20">
-        <v>30.428134964</v>
+        <v>30.680651384</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1232701773725398</v>
+        <v>0.12216067780452</v>
       </c>
       <c r="T20">
         <v>1.123020923329206</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>30.51487348002761</v>
+        <v>42.75849555534733</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2910,13 +2910,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1040858151831127</v>
+        <v>0.1022676001075371</v>
       </c>
       <c r="C21">
-        <v>258.4476591475553</v>
+        <v>258.3717399511409</v>
       </c>
       <c r="D21">
-        <v>276.8206591475553</v>
+        <v>276.7447399511409</v>
       </c>
       <c r="E21">
         <v>-34.827</v>
@@ -2943,37 +2943,37 @@
         <v>34.5</v>
       </c>
       <c r="M21">
-        <v>1.1934071</v>
+        <v>0.8516826000000001</v>
       </c>
       <c r="N21">
-        <v>33.3065929</v>
+        <v>33.6483174</v>
       </c>
       <c r="O21">
-        <v>7.327450438</v>
+        <v>7.402629828000001</v>
       </c>
       <c r="P21">
-        <v>25.979142462</v>
+        <v>26.245687572</v>
       </c>
       <c r="Q21">
-        <v>30.379142462</v>
+        <v>30.645687572</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1243477471396454</v>
+        <v>0.1232922964290582</v>
       </c>
       <c r="T21">
         <v>1.134281101961011</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>28.90882750739458</v>
+        <v>40.50804842085537</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1039030049207428</v>
+        <v>0.1020889644153679</v>
       </c>
       <c r="C22">
-        <v>256.229480523201</v>
+        <v>256.1375240864833</v>
       </c>
       <c r="D22">
-        <v>277.369480523201</v>
+        <v>277.2775240864834</v>
       </c>
       <c r="E22">
         <v>-32.06</v>
@@ -3025,37 +3025,37 @@
         <v>34.5</v>
       </c>
       <c r="M22">
-        <v>1.256218</v>
+        <v>0.8965080000000001</v>
       </c>
       <c r="N22">
-        <v>33.243782</v>
+        <v>33.603492</v>
       </c>
       <c r="O22">
-        <v>7.313632040000001</v>
+        <v>7.392768240000001</v>
       </c>
       <c r="P22">
-        <v>25.93014996</v>
+        <v>26.21072376</v>
       </c>
       <c r="Q22">
-        <v>30.33014996</v>
+        <v>30.61072376</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1254522561509285</v>
+        <v>0.1244522055192099</v>
       </c>
       <c r="T22">
         <v>1.14582278505861</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>27.46338613202485</v>
+        <v>38.4826459998126</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1037201946583729</v>
+        <v>0.1019103287231986</v>
       </c>
       <c r="C23">
-        <v>254.0134823954532</v>
+        <v>253.9053635921958</v>
       </c>
       <c r="D23">
-        <v>277.9204823954532</v>
+        <v>277.8123635921958</v>
       </c>
       <c r="E23">
         <v>-29.293</v>
@@ -3107,37 +3107,37 @@
         <v>34.5</v>
       </c>
       <c r="M23">
-        <v>1.3190289</v>
+        <v>0.9413334000000001</v>
       </c>
       <c r="N23">
-        <v>33.1809711</v>
+        <v>33.5586666</v>
       </c>
       <c r="O23">
-        <v>7.299813642</v>
+        <v>7.382906652000001</v>
       </c>
       <c r="P23">
-        <v>25.881157458</v>
+        <v>26.175759948</v>
       </c>
       <c r="Q23">
-        <v>30.281157458</v>
+        <v>30.575759948</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1265847274156619</v>
+        <v>0.125641479396454</v>
       </c>
       <c r="T23">
         <v>1.15765666266501</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>26.15560584002367</v>
+        <v>36.65013904744058</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.103537384396003</v>
+        <v>0.1017316930310294</v>
       </c>
       <c r="C24">
-        <v>251.7996777850218</v>
+        <v>251.675270385051</v>
       </c>
       <c r="D24">
-        <v>278.4736777850218</v>
+        <v>278.349270385051</v>
       </c>
       <c r="E24">
         <v>-26.526</v>
@@ -3189,37 +3189,37 @@
         <v>34.5</v>
       </c>
       <c r="M24">
-        <v>1.3818398</v>
+        <v>0.9861588000000001</v>
       </c>
       <c r="N24">
-        <v>33.1181602</v>
+        <v>33.5138412</v>
       </c>
       <c r="O24">
-        <v>7.285995244</v>
+        <v>7.373045064</v>
       </c>
       <c r="P24">
-        <v>25.832164956</v>
+        <v>26.140796136</v>
       </c>
       <c r="Q24">
-        <v>30.232164956</v>
+        <v>30.540796136</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1277462364051321</v>
+        <v>0.1268612474756787</v>
       </c>
       <c r="T24">
         <v>1.169793973030548</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>24.96671466547713</v>
+        <v>34.98422363619328</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1033545741336331</v>
+        <v>0.1015530573388601</v>
       </c>
       <c r="C25">
-        <v>249.5880798164937</v>
+        <v>249.4472564741233</v>
       </c>
       <c r="D25">
-        <v>279.0290798164938</v>
+        <v>278.8882564741233</v>
       </c>
       <c r="E25">
         <v>-23.75899999999999</v>
@@ -3271,37 +3271,37 @@
         <v>34.5</v>
       </c>
       <c r="M25">
-        <v>1.4446507</v>
+        <v>1.0309842</v>
       </c>
       <c r="N25">
-        <v>33.0553493</v>
+        <v>33.4690158</v>
       </c>
       <c r="O25">
-        <v>7.272176846000001</v>
+        <v>7.363183476000001</v>
       </c>
       <c r="P25">
-        <v>25.783172454</v>
+        <v>26.105832324</v>
       </c>
       <c r="Q25">
-        <v>30.183172454</v>
+        <v>30.505832324</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1289379144592638</v>
+        <v>0.1281126978426755</v>
       </c>
       <c r="T25">
         <v>1.182246538210775</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>23.88120533219552</v>
+        <v>33.46317043461965</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1031717638712632</v>
+        <v>0.1013744216466909</v>
       </c>
       <c r="C26">
-        <v>247.37870171937</v>
+        <v>247.2213339616833</v>
       </c>
       <c r="D26">
-        <v>279.5867017193701</v>
+        <v>279.4293339616833</v>
       </c>
       <c r="E26">
         <v>-20.99199999999999</v>
@@ -3353,37 +3353,37 @@
         <v>34.5</v>
       </c>
       <c r="M26">
-        <v>1.507461600000001</v>
+        <v>1.0758096</v>
       </c>
       <c r="N26">
-        <v>32.9925384</v>
+        <v>33.4241904</v>
       </c>
       <c r="O26">
-        <v>7.258358448</v>
+        <v>7.353321888</v>
       </c>
       <c r="P26">
-        <v>25.734179952</v>
+        <v>26.070868512</v>
       </c>
       <c r="Q26">
-        <v>30.134179952</v>
+        <v>30.470868512</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1301609524621884</v>
+        <v>0.1293970811140669</v>
       </c>
       <c r="T26">
         <v>1.195026802474692</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>22.88615511002071</v>
+        <v>32.0688716665105</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1029889536088933</v>
+        <v>0.1011957859545216</v>
       </c>
       <c r="C27">
-        <v>245.1715568291173</v>
+        <v>244.9975150441036</v>
       </c>
       <c r="D27">
-        <v>280.1465568291173</v>
+        <v>279.9725150441036</v>
       </c>
       <c r="E27">
         <v>-18.22499999999999</v>
@@ -3435,37 +3435,37 @@
         <v>34.5</v>
       </c>
       <c r="M27">
-        <v>1.5702725</v>
+        <v>1.120635</v>
       </c>
       <c r="N27">
-        <v>32.9297275</v>
+        <v>33.379365</v>
       </c>
       <c r="O27">
-        <v>7.244540049999999</v>
+        <v>7.3434603</v>
       </c>
       <c r="P27">
-        <v>25.68518745</v>
+        <v>26.0359047</v>
       </c>
       <c r="Q27">
-        <v>30.08518745</v>
+        <v>30.4359047</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1314166048118577</v>
+        <v>0.1307157146060288</v>
       </c>
       <c r="T27">
         <v>1.208147873785648</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>21.97070890561988</v>
+        <v>30.78611679985008</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1028061433465234</v>
+        <v>0.1010171502623524</v>
       </c>
       <c r="C28">
-        <v>242.9666585882297</v>
+        <v>242.7758120127753</v>
       </c>
       <c r="D28">
-        <v>280.7086585882297</v>
+        <v>280.5178120127753</v>
       </c>
       <c r="E28">
         <v>-15.458</v>
@@ -3517,37 +3517,37 @@
         <v>34.5</v>
       </c>
       <c r="M28">
-        <v>1.6330834</v>
+        <v>1.1654604</v>
       </c>
       <c r="N28">
-        <v>32.8669166</v>
+        <v>33.3345396</v>
       </c>
       <c r="O28">
-        <v>7.230721651999999</v>
+        <v>7.333598712</v>
       </c>
       <c r="P28">
-        <v>25.636194948</v>
+        <v>26.000940888</v>
       </c>
       <c r="Q28">
-        <v>30.036194948</v>
+        <v>30.400940888</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1327061937115181</v>
+        <v>0.1320699868410167</v>
       </c>
       <c r="T28">
         <v>1.221623568645548</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>21.12568164001911</v>
+        <v>29.60203538447124</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3566,13 +3566,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1026233330841535</v>
+        <v>0.1008385145701831</v>
       </c>
       <c r="C29">
-        <v>240.7640205473057</v>
+        <v>240.5562372550353</v>
       </c>
       <c r="D29">
-        <v>281.2730205473057</v>
+        <v>281.0652372550354</v>
       </c>
       <c r="E29">
         <v>-12.69099999999999</v>
@@ -3599,37 +3599,37 @@
         <v>34.5</v>
       </c>
       <c r="M29">
-        <v>1.6958943</v>
+        <v>1.2102858</v>
       </c>
       <c r="N29">
-        <v>32.8041057</v>
+        <v>33.2897142</v>
       </c>
       <c r="O29">
-        <v>7.216903254</v>
+        <v>7.323737124</v>
       </c>
       <c r="P29">
-        <v>25.587202446</v>
+        <v>25.965977076</v>
       </c>
       <c r="Q29">
-        <v>29.987202446</v>
+        <v>30.365977076</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1340311138139089</v>
+        <v>0.1334613624249084</v>
       </c>
       <c r="T29">
         <v>1.235468460624897</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>20.34324898668507</v>
+        <v>28.50566370356488</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3648,13 +3648,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1024405228217836</v>
+        <v>0.1006598788780139</v>
       </c>
       <c r="C30">
-        <v>238.5636563661368</v>
+        <v>238.3388032551042</v>
       </c>
       <c r="D30">
-        <v>281.8396563661368</v>
+        <v>281.6148032551042</v>
       </c>
       <c r="E30">
         <v>-9.923999999999992</v>
@@ -3681,37 +3681,37 @@
         <v>34.5</v>
       </c>
       <c r="M30">
-        <v>1.7587052</v>
+        <v>1.2551112</v>
       </c>
       <c r="N30">
-        <v>32.7412948</v>
+        <v>33.2448888</v>
       </c>
       <c r="O30">
-        <v>7.203084855999999</v>
+        <v>7.313875535999999</v>
       </c>
       <c r="P30">
-        <v>25.538209944</v>
+        <v>25.931013264</v>
       </c>
       <c r="Q30">
-        <v>29.938209944</v>
+        <v>30.331013264</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1353928372524772</v>
+        <v>0.1348913873305748</v>
       </c>
       <c r="T30">
         <v>1.249697932937006</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>19.61670438001775</v>
+        <v>27.48760428558043</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3730,13 +3730,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1022577125594136</v>
+        <v>0.1004812431858446</v>
       </c>
       <c r="C31">
-        <v>236.3655798148093</v>
+        <v>236.1235225950353</v>
       </c>
       <c r="D31">
-        <v>282.4085798148093</v>
+        <v>282.1665225950353</v>
       </c>
       <c r="E31">
         <v>-7.156999999999996</v>
@@ -3763,37 +3763,37 @@
         <v>34.5</v>
       </c>
       <c r="M31">
-        <v>1.8215161</v>
+        <v>1.2999366</v>
       </c>
       <c r="N31">
-        <v>32.6784839</v>
+        <v>33.2000634</v>
       </c>
       <c r="O31">
-        <v>7.189266458</v>
+        <v>7.304013948</v>
       </c>
       <c r="P31">
-        <v>25.489217442</v>
+        <v>25.896049452</v>
       </c>
       <c r="Q31">
-        <v>29.889217442</v>
+        <v>30.296049452</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1367929190977657</v>
+        <v>0.1363616946279501</v>
       </c>
       <c r="T31">
         <v>1.26432823545509</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>18.94026629794817</v>
+        <v>26.53975586193972</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3812,13 +3812,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1020749022970437</v>
+        <v>0.1003026074936753</v>
       </c>
       <c r="C32">
-        <v>234.1698047748199</v>
+        <v>233.9104079556747</v>
       </c>
       <c r="D32">
-        <v>282.9798047748199</v>
+        <v>282.7204079556747</v>
       </c>
       <c r="E32">
         <v>-4.390000000000001</v>
@@ -3845,37 +3845,37 @@
         <v>34.5</v>
       </c>
       <c r="M32">
-        <v>1.884327</v>
+        <v>1.344762</v>
       </c>
       <c r="N32">
-        <v>32.615673</v>
+        <v>33.155238</v>
       </c>
       <c r="O32">
-        <v>7.17544806</v>
+        <v>7.294152359999999</v>
       </c>
       <c r="P32">
-        <v>25.44022494</v>
+        <v>25.86108564</v>
       </c>
       <c r="Q32">
-        <v>29.84022494</v>
+        <v>30.26108564</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.138233003281491</v>
+        <v>0.1378740107052505</v>
       </c>
       <c r="T32">
         <v>1.279376546616547</v>
       </c>
       <c r="U32">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>18.30892408801657</v>
+        <v>25.6550973332084</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3894,13 +3894,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1018920920346738</v>
+        <v>0.1001239718015061</v>
       </c>
       <c r="C33">
-        <v>231.9763452402049</v>
+        <v>231.699472117633</v>
       </c>
       <c r="D33">
-        <v>283.553345240205</v>
+        <v>283.276472117633</v>
       </c>
       <c r="E33">
         <v>-1.62299999999999</v>
@@ -3927,37 +3927,37 @@
         <v>34.5</v>
       </c>
       <c r="M33">
-        <v>1.9471379</v>
+        <v>1.3895874</v>
       </c>
       <c r="N33">
-        <v>32.5528621</v>
+        <v>33.1104126</v>
       </c>
       <c r="O33">
-        <v>7.161629662</v>
+        <v>7.284290771999999</v>
       </c>
       <c r="P33">
-        <v>25.391232438</v>
+        <v>25.826121828</v>
       </c>
       <c r="Q33">
-        <v>29.791232438</v>
+        <v>30.226121828</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1397148290357592</v>
+        <v>0.1394301620311682</v>
       </c>
       <c r="T33">
         <v>1.294861040710221</v>
       </c>
       <c r="U33">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>17.71831363356442</v>
+        <v>24.82751354826619</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1017092817723039</v>
+        <v>0.0999453361093368</v>
       </c>
       <c r="C34">
-        <v>229.7852153186829</v>
+        <v>229.4907279622687</v>
       </c>
       <c r="D34">
-        <v>284.1292153186829</v>
+        <v>283.8347279622687</v>
       </c>
       <c r="E34">
         <v>1.144000000000005</v>
@@ -4009,37 +4009,37 @@
         <v>34.5</v>
       </c>
       <c r="M34">
-        <v>2.009948800000001</v>
+        <v>1.4344128</v>
       </c>
       <c r="N34">
-        <v>32.4900512</v>
+        <v>33.0655872</v>
       </c>
       <c r="O34">
-        <v>7.147811264</v>
+        <v>7.274429184000001</v>
       </c>
       <c r="P34">
-        <v>25.342239936</v>
+        <v>25.791158016</v>
       </c>
       <c r="Q34">
-        <v>29.742239936</v>
+        <v>30.191158016</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1412402379004469</v>
+        <v>0.1410320825137306</v>
       </c>
       <c r="T34">
         <v>1.310800961100768</v>
       </c>
       <c r="U34">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>17.16461633251553</v>
+        <v>24.05165374988288</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.101526471509934</v>
+        <v>0.09976670041716755</v>
       </c>
       <c r="C35">
-        <v>227.5964292328114</v>
+        <v>227.2841884726819</v>
       </c>
       <c r="D35">
-        <v>284.7074292328115</v>
+        <v>284.395188472682</v>
       </c>
       <c r="E35">
         <v>3.911000000000016</v>
@@ -4091,37 +4091,37 @@
         <v>34.5</v>
       </c>
       <c r="M35">
-        <v>2.072759700000001</v>
+        <v>1.4792382</v>
       </c>
       <c r="N35">
-        <v>32.4272403</v>
+        <v>33.0207618</v>
       </c>
       <c r="O35">
-        <v>7.133992866000001</v>
+        <v>7.264567596000001</v>
       </c>
       <c r="P35">
-        <v>25.293247434</v>
+        <v>25.756194204</v>
       </c>
       <c r="Q35">
-        <v>29.693247434</v>
+        <v>30.156194204</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1428111813581104</v>
+        <v>0.1426818215181605</v>
       </c>
       <c r="T35">
         <v>1.327216700010435</v>
       </c>
       <c r="U35">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>16.64447644365142</v>
+        <v>23.32281575746218</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1013436612475641</v>
+        <v>0.09958806472499829</v>
       </c>
       <c r="C36">
-        <v>225.4100013211578</v>
+        <v>225.0798667347221</v>
       </c>
       <c r="D36">
-        <v>285.2880013211578</v>
+        <v>284.9578667347221</v>
       </c>
       <c r="E36">
         <v>6.678000000000011</v>
@@ -4173,37 +4173,37 @@
         <v>34.5</v>
       </c>
       <c r="M36">
-        <v>2.1355706</v>
+        <v>1.5240636</v>
       </c>
       <c r="N36">
-        <v>32.3644294</v>
+        <v>32.9759364</v>
       </c>
       <c r="O36">
-        <v>7.120174468</v>
+        <v>7.254706008</v>
       </c>
       <c r="P36">
-        <v>25.244254932</v>
+        <v>25.721230392</v>
       </c>
       <c r="Q36">
-        <v>29.644254932</v>
+        <v>30.121230392</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1444297291629759</v>
+        <v>0.1443815526136338</v>
       </c>
       <c r="T36">
         <v>1.344129885553729</v>
       </c>
       <c r="U36">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>16.15493301883815</v>
+        <v>22.63685058812506</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4222,13 +4222,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1011608509851942</v>
+        <v>0.09940942903282902</v>
       </c>
       <c r="C37">
-        <v>223.2259460394848</v>
+        <v>222.8777759380052</v>
       </c>
       <c r="D37">
-        <v>285.8709460394848</v>
+        <v>285.5227759380052</v>
       </c>
       <c r="E37">
         <v>9.445000000000022</v>
@@ -4255,37 +4255,37 @@
         <v>34.5</v>
       </c>
       <c r="M37">
-        <v>2.198381500000001</v>
+        <v>1.568889</v>
       </c>
       <c r="N37">
-        <v>32.3016185</v>
+        <v>32.931111</v>
       </c>
       <c r="O37">
-        <v>7.106356069999999</v>
+        <v>7.244844420000001</v>
       </c>
       <c r="P37">
-        <v>25.19526243</v>
+        <v>25.68626658</v>
       </c>
       <c r="Q37">
-        <v>29.59526242999999</v>
+        <v>30.08626658</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1460980784387603</v>
+        <v>0.1461335831274293</v>
       </c>
       <c r="T37">
         <v>1.361563476806047</v>
       </c>
       <c r="U37">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>15.6933635040142</v>
+        <v>21.99008342846434</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1009780407228243</v>
+        <v>0.0992307933406598</v>
       </c>
       <c r="C38">
-        <v>221.0442779619497</v>
+        <v>220.6779293769452</v>
       </c>
       <c r="D38">
-        <v>286.4562779619498</v>
+        <v>286.0899293769452</v>
       </c>
       <c r="E38">
         <v>12.212</v>
@@ -4337,37 +4337,37 @@
         <v>34.5</v>
       </c>
       <c r="M38">
-        <v>2.261192400000001</v>
+        <v>1.6137144</v>
       </c>
       <c r="N38">
-        <v>32.2388076</v>
+        <v>32.8862856</v>
       </c>
       <c r="O38">
-        <v>7.092537672000001</v>
+        <v>7.234982832</v>
       </c>
       <c r="P38">
-        <v>25.146269928</v>
+        <v>25.651302768</v>
       </c>
       <c r="Q38">
-        <v>29.546269928</v>
+        <v>30.051302768</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1478185636294129</v>
+        <v>0.1479403645947809</v>
       </c>
       <c r="T38">
         <v>1.379541867785</v>
       </c>
       <c r="U38">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>15.25743674001381</v>
+        <v>21.37924777767367</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4386,13 +4386,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1007952304604544</v>
+        <v>0.09905215764849053</v>
       </c>
       <c r="C39">
-        <v>218.8650117823199</v>
+        <v>218.4803404517972</v>
       </c>
       <c r="D39">
-        <v>287.04401178232</v>
+        <v>286.6593404517973</v>
       </c>
       <c r="E39">
         <v>14.97900000000001</v>
@@ -4419,37 +4419,37 @@
         <v>34.5</v>
       </c>
       <c r="M39">
-        <v>2.324003300000001</v>
+        <v>1.6585398</v>
       </c>
       <c r="N39">
-        <v>32.1759967</v>
+        <v>32.8414602</v>
       </c>
       <c r="O39">
-        <v>7.078719274</v>
+        <v>7.225121244</v>
       </c>
       <c r="P39">
-        <v>25.097277426</v>
+        <v>25.616338956</v>
       </c>
       <c r="Q39">
-        <v>29.497277426</v>
+        <v>30.016338956</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1495936673975466</v>
+        <v>0.1498045042039532</v>
       </c>
       <c r="T39">
         <v>1.398091001334714</v>
       </c>
       <c r="U39">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>14.8450735848783</v>
+        <v>20.80143027016898</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4468,13 +4468,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1006124201980845</v>
+        <v>0.09887352195632129</v>
       </c>
       <c r="C40">
-        <v>216.6881623152013</v>
+        <v>216.2850226697115</v>
       </c>
       <c r="D40">
-        <v>287.6341623152014</v>
+        <v>287.2310226697115</v>
       </c>
       <c r="E40">
         <v>17.74600000000001</v>
@@ -4501,37 +4501,37 @@
         <v>34.5</v>
       </c>
       <c r="M40">
-        <v>2.3868142</v>
+        <v>1.7033652</v>
       </c>
       <c r="N40">
-        <v>32.1131858</v>
+        <v>32.7966348</v>
       </c>
       <c r="O40">
-        <v>7.064900875999999</v>
+        <v>7.215259656</v>
       </c>
       <c r="P40">
-        <v>25.048284924</v>
+        <v>25.581375144</v>
       </c>
       <c r="Q40">
-        <v>29.448284924</v>
+        <v>29.981375144</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1514260325775556</v>
+        <v>0.1517287773489053</v>
       </c>
       <c r="T40">
         <v>1.417238494031192</v>
       </c>
       <c r="U40">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>14.45441375369729</v>
+        <v>20.25402421042769</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1004296099357145</v>
+        <v>0.098694886264152</v>
       </c>
       <c r="C41">
-        <v>214.5137444972842</v>
+        <v>214.0919896458032</v>
       </c>
       <c r="D41">
-        <v>288.2267444972842</v>
+        <v>287.8049896458032</v>
       </c>
       <c r="E41">
         <v>20.51300000000002</v>
@@ -4583,37 +4583,37 @@
         <v>34.5</v>
       </c>
       <c r="M41">
-        <v>2.449625100000001</v>
+        <v>1.7481906</v>
       </c>
       <c r="N41">
-        <v>32.0503749</v>
+        <v>32.7518094</v>
       </c>
       <c r="O41">
-        <v>7.051082478000001</v>
+        <v>7.205398068</v>
       </c>
       <c r="P41">
-        <v>24.999292422</v>
+        <v>25.546411332</v>
       </c>
       <c r="Q41">
-        <v>29.399292422</v>
+        <v>29.946411332</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1533184753044501</v>
+        <v>0.1537161414166426</v>
       </c>
       <c r="T41">
         <v>1.437013773373457</v>
       </c>
       <c r="U41">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>14.08378776001274</v>
+        <v>19.73469025631415</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4632,13 +4632,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1002467996733446</v>
+        <v>0.09851625057198277</v>
       </c>
       <c r="C42">
-        <v>212.3417733886022</v>
+        <v>211.9012551042317</v>
       </c>
       <c r="D42">
-        <v>288.8217733886023</v>
+        <v>288.3812551042317</v>
       </c>
       <c r="E42">
         <v>23.28000000000002</v>
@@ -4665,37 +4665,37 @@
         <v>34.5</v>
       </c>
       <c r="M42">
-        <v>2.512436000000001</v>
+        <v>1.793016</v>
       </c>
       <c r="N42">
-        <v>31.987564</v>
+        <v>32.706984</v>
       </c>
       <c r="O42">
-        <v>7.03726408</v>
+        <v>7.195536479999999</v>
       </c>
       <c r="P42">
-        <v>24.95029992</v>
+        <v>25.51144752</v>
       </c>
       <c r="Q42">
-        <v>29.35029992</v>
+        <v>29.91144752</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1552739994555744</v>
+        <v>0.1557697509533046</v>
       </c>
       <c r="T42">
         <v>1.457448228693797</v>
       </c>
       <c r="U42">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>13.73169306601242</v>
+        <v>19.2413229999063</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1000639894109747</v>
+        <v>0.09833761487981352</v>
       </c>
       <c r="C43">
-        <v>210.1722641738096</v>
+        <v>209.7128328792959</v>
       </c>
       <c r="D43">
-        <v>289.4192641738096</v>
+        <v>288.9598328792959</v>
       </c>
       <c r="E43">
         <v>26.04700000000003</v>
@@ -4747,37 +4747,37 @@
         <v>34.5</v>
       </c>
       <c r="M43">
-        <v>2.575246900000001</v>
+        <v>1.837841400000001</v>
       </c>
       <c r="N43">
-        <v>31.9247531</v>
+        <v>32.6621586</v>
       </c>
       <c r="O43">
-        <v>7.023445682</v>
+        <v>7.185674892</v>
       </c>
       <c r="P43">
-        <v>24.901307418</v>
+        <v>25.476483708</v>
       </c>
       <c r="Q43">
-        <v>29.301307418</v>
+        <v>29.87648370799999</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1572958125609741</v>
+        <v>0.1578929743725653</v>
       </c>
       <c r="T43">
         <v>1.478575377414827</v>
       </c>
       <c r="U43">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>13.39677372293895</v>
+        <v>18.77202243893297</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4796,13 +4796,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1004053391486048</v>
+        <v>0.09815897918764425</v>
       </c>
       <c r="C44">
-        <v>206.2916022676095</v>
+        <v>207.5267369165402</v>
       </c>
       <c r="D44">
-        <v>288.3056022676095</v>
+        <v>289.5407369165402</v>
       </c>
       <c r="E44">
         <v>28.81400000000001</v>
@@ -4829,45 +4829,45 @@
         <v>34.5</v>
       </c>
       <c r="M44">
-        <v>2.8240002</v>
+        <v>1.8826668</v>
       </c>
       <c r="N44">
-        <v>31.6759998</v>
+        <v>32.6173332</v>
       </c>
       <c r="O44">
-        <v>6.968719956</v>
+        <v>7.175813303999999</v>
       </c>
       <c r="P44">
-        <v>24.707279844</v>
+        <v>25.441519896</v>
       </c>
       <c r="Q44">
-        <v>29.107279844</v>
+        <v>29.841519896</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1593873433596635</v>
+        <v>0.1600894123924901</v>
       </c>
       <c r="T44">
         <v>1.500431048505547</v>
       </c>
       <c r="U44">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y44">
-        <v>12.21671301581352</v>
+        <v>18.32506952372028</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4878,13 +4878,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1002350088862349</v>
+        <v>0.09798034349547502</v>
       </c>
       <c r="C45">
-        <v>204.0792355568966</v>
+        <v>205.3429812738753</v>
       </c>
       <c r="D45">
-        <v>288.8602355568967</v>
+        <v>290.1239812738753</v>
       </c>
       <c r="E45">
         <v>31.58100000000002</v>
@@ -4911,45 +4911,45 @@
         <v>34.5</v>
       </c>
       <c r="M45">
-        <v>2.891238300000001</v>
+        <v>1.9274922</v>
       </c>
       <c r="N45">
-        <v>31.6087617</v>
+        <v>32.5725078</v>
       </c>
       <c r="O45">
-        <v>6.953927574</v>
+        <v>7.165951715999999</v>
       </c>
       <c r="P45">
-        <v>24.654834126</v>
+        <v>25.406556084</v>
       </c>
       <c r="Q45">
-        <v>29.054834126</v>
+        <v>29.806556084</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1615522612039209</v>
+        <v>0.162362918413114</v>
       </c>
       <c r="T45">
         <v>1.523053585248573</v>
       </c>
       <c r="U45">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y45">
-        <v>11.9326034107946</v>
+        <v>17.89890511619191</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4960,13 +4960,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.100064678623865</v>
+        <v>0.09780170780330574</v>
       </c>
       <c r="C46">
-        <v>201.8690069316727</v>
+        <v>203.1615801227128</v>
       </c>
       <c r="D46">
-        <v>289.4170069316727</v>
+        <v>290.7095801227128</v>
       </c>
       <c r="E46">
         <v>34.34800000000001</v>
@@ -4993,45 +4993,45 @@
         <v>34.5</v>
       </c>
       <c r="M46">
-        <v>2.958476400000001</v>
+        <v>1.9723176</v>
       </c>
       <c r="N46">
-        <v>31.5415236</v>
+        <v>32.5276824</v>
       </c>
       <c r="O46">
-        <v>6.939135191999999</v>
+        <v>7.156090128000001</v>
       </c>
       <c r="P46">
-        <v>24.602388408</v>
+        <v>25.371592272</v>
       </c>
       <c r="Q46">
-        <v>29.002388408</v>
+        <v>29.771592272</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1637944975426161</v>
+        <v>0.1647176210773317</v>
       </c>
       <c r="T46">
         <v>1.546484069732422</v>
       </c>
       <c r="U46">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y46">
-        <v>11.66140787873109</v>
+        <v>17.49211181809664</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5042,13 +5042,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.09989434836149509</v>
+        <v>0.09762307211113649</v>
       </c>
       <c r="C47">
-        <v>199.6609287791436</v>
+        <v>200.9825477491117</v>
       </c>
       <c r="D47">
-        <v>289.9759287791437</v>
+        <v>291.2975477491118</v>
       </c>
       <c r="E47">
         <v>37.11500000000002</v>
@@ -5075,45 +5075,45 @@
         <v>34.5</v>
       </c>
       <c r="M47">
-        <v>3.025714500000001</v>
+        <v>2.017143</v>
       </c>
       <c r="N47">
-        <v>31.4742855</v>
+        <v>32.482857</v>
       </c>
       <c r="O47">
-        <v>6.92434281</v>
+        <v>7.146228540000001</v>
       </c>
       <c r="P47">
-        <v>24.54994269</v>
+        <v>25.33662846</v>
       </c>
       <c r="Q47">
-        <v>28.94994269</v>
+        <v>29.73662846</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1661182697481729</v>
+        <v>0.1671579492929754</v>
       </c>
       <c r="T47">
         <v>1.570766571833865</v>
       </c>
       <c r="U47">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y47">
-        <v>11.40226548142595</v>
+        <v>17.10339822213894</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5124,13 +5124,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.09972401809912518</v>
+        <v>0.09744443641896722</v>
       </c>
       <c r="C48">
-        <v>197.455013582389</v>
+        <v>198.8058985549418</v>
       </c>
       <c r="D48">
-        <v>290.5370135823891</v>
+        <v>291.8878985549418</v>
       </c>
       <c r="E48">
         <v>39.88200000000002</v>
@@ -5157,45 +5157,45 @@
         <v>34.5</v>
       </c>
       <c r="M48">
-        <v>3.092952600000001</v>
+        <v>2.0619684</v>
       </c>
       <c r="N48">
-        <v>31.4070474</v>
+        <v>32.4380316</v>
       </c>
       <c r="O48">
-        <v>6.909550428</v>
+        <v>7.136366952</v>
       </c>
       <c r="P48">
-        <v>24.497496972</v>
+        <v>25.301664648</v>
       </c>
       <c r="Q48">
-        <v>28.897496972</v>
+        <v>29.701664648</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1685281075909725</v>
+        <v>0.1696886600351245</v>
       </c>
       <c r="T48">
         <v>1.595948425864991</v>
       </c>
       <c r="U48">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y48">
-        <v>11.15439014487322</v>
+        <v>16.73158521730983</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5206,13 +5206,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.09955368783675526</v>
+        <v>0.09726580072679797</v>
       </c>
       <c r="C49">
-        <v>195.2512739212919</v>
+        <v>196.631647059058</v>
       </c>
       <c r="D49">
-        <v>291.1002739212919</v>
+        <v>292.480647059058</v>
       </c>
       <c r="E49">
         <v>42.64900000000003</v>
@@ -5239,45 +5239,45 @@
         <v>34.5</v>
       </c>
       <c r="M49">
-        <v>3.160190700000001</v>
+        <v>2.106793800000001</v>
       </c>
       <c r="N49">
-        <v>31.3398093</v>
+        <v>32.3932062</v>
       </c>
       <c r="O49">
-        <v>6.894758046</v>
+        <v>7.126505364000001</v>
       </c>
       <c r="P49">
-        <v>24.445051254</v>
+        <v>25.266700836</v>
       </c>
       <c r="Q49">
-        <v>28.845051254</v>
+        <v>29.666700836</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.171028882710859</v>
+        <v>0.1723148692958452</v>
       </c>
       <c r="T49">
         <v>1.622080538538802</v>
       </c>
       <c r="U49">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y49">
-        <v>10.9170626949823</v>
+        <v>16.37559404247344</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5288,13 +5288,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.09938335757438535</v>
+        <v>0.09708716503462872</v>
       </c>
       <c r="C50">
-        <v>193.0497224734785</v>
+        <v>194.4598078984915</v>
       </c>
       <c r="D50">
-        <v>291.6657224734785</v>
+        <v>293.0758078984916</v>
       </c>
       <c r="E50">
         <v>45.41600000000003</v>
@@ -5321,45 +5321,45 @@
         <v>34.5</v>
       </c>
       <c r="M50">
-        <v>3.227428800000001</v>
+        <v>2.1516192</v>
       </c>
       <c r="N50">
-        <v>31.2725712</v>
+        <v>32.3483808</v>
       </c>
       <c r="O50">
-        <v>6.879965663999999</v>
+        <v>7.116643776</v>
       </c>
       <c r="P50">
-        <v>24.392605536</v>
+        <v>25.231737024</v>
       </c>
       <c r="Q50">
-        <v>28.792605536</v>
+        <v>29.631737024</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1736258414892026</v>
+        <v>0.1750420866050552</v>
       </c>
       <c r="T50">
         <v>1.649217732469297</v>
       </c>
       <c r="U50">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y50">
-        <v>10.68962388883683</v>
+        <v>16.03443583325525</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5370,13 +5370,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.09921302731201544</v>
+        <v>0.09690852934245946</v>
       </c>
       <c r="C51">
-        <v>190.8503720152694</v>
+        <v>192.2903958296548</v>
       </c>
       <c r="D51">
-        <v>292.2333720152694</v>
+        <v>293.6733958296548</v>
       </c>
       <c r="E51">
         <v>48.18300000000002</v>
@@ -5403,45 +5403,45 @@
         <v>34.5</v>
       </c>
       <c r="M51">
-        <v>3.294666900000001</v>
+        <v>2.1964446</v>
       </c>
       <c r="N51">
-        <v>31.2053331</v>
+        <v>32.3035554</v>
       </c>
       <c r="O51">
-        <v>6.865173282</v>
+        <v>7.106782188</v>
       </c>
       <c r="P51">
-        <v>24.340159818</v>
+        <v>25.196773212</v>
       </c>
       <c r="Q51">
-        <v>28.740159818</v>
+        <v>29.596773212</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1763246417882656</v>
+        <v>0.1778762536126656</v>
       </c>
       <c r="T51">
         <v>1.677419130083341</v>
       </c>
       <c r="U51">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y51">
-        <v>10.47146829926873</v>
+        <v>15.7072024489031</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5452,13 +5452,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.09990069704964553</v>
+        <v>0.09672989365029021</v>
       </c>
       <c r="C52">
-        <v>185.8050574596704</v>
+        <v>190.1234257295602</v>
       </c>
       <c r="D52">
-        <v>289.9550574596705</v>
+        <v>294.2734257295602</v>
       </c>
       <c r="E52">
         <v>50.95000000000002</v>
@@ -5485,45 +5485,45 @@
         <v>34.5</v>
       </c>
       <c r="M52">
-        <v>3.666275000000001</v>
+        <v>2.24127</v>
       </c>
       <c r="N52">
-        <v>30.833725</v>
+        <v>32.25873</v>
       </c>
       <c r="O52">
-        <v>6.7834195</v>
+        <v>7.0969206</v>
       </c>
       <c r="P52">
-        <v>24.0503055</v>
+        <v>25.1618094</v>
       </c>
       <c r="Q52">
-        <v>28.4503055</v>
+        <v>29.5618094</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1791313940992911</v>
+        <v>0.1808237873005804</v>
       </c>
       <c r="T52">
         <v>1.706748583601947</v>
       </c>
       <c r="U52">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y52">
-        <v>9.41009607844474</v>
+        <v>15.39305839992504</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5534,13 +5534,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.09974752678727562</v>
+        <v>0.09655125795812093</v>
       </c>
       <c r="C53">
-        <v>183.5424445024783</v>
+        <v>187.9589125970556</v>
       </c>
       <c r="D53">
-        <v>290.4594445024783</v>
+        <v>294.8759125970557</v>
       </c>
       <c r="E53">
         <v>53.71700000000001</v>
@@ -5567,45 +5567,45 @@
         <v>34.5</v>
       </c>
       <c r="M53">
-        <v>3.739600500000001</v>
+        <v>2.2860954</v>
       </c>
       <c r="N53">
-        <v>30.7603995</v>
+        <v>32.2139046</v>
       </c>
       <c r="O53">
-        <v>6.76728789</v>
+        <v>7.087059012</v>
       </c>
       <c r="P53">
-        <v>23.99311161</v>
+        <v>25.126845588</v>
       </c>
       <c r="Q53">
-        <v>28.39311161</v>
+        <v>29.526845588</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1820527077291339</v>
+        <v>0.1838916284859611</v>
       </c>
       <c r="T53">
         <v>1.737275157672332</v>
       </c>
       <c r="U53">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y53">
-        <v>9.225584390632099</v>
+        <v>15.09123372541671</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5616,13 +5616,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.09959435652490571</v>
+        <v>0.09637262226595168</v>
       </c>
       <c r="C54">
-        <v>181.2815894012178</v>
+        <v>185.7968715540734</v>
       </c>
       <c r="D54">
-        <v>290.9655894012178</v>
+        <v>295.4808715540734</v>
       </c>
       <c r="E54">
         <v>56.48400000000001</v>
@@ -5649,45 +5649,45 @@
         <v>34.5</v>
       </c>
       <c r="M54">
-        <v>3.812926000000001</v>
+        <v>2.3309208</v>
       </c>
       <c r="N54">
-        <v>30.687074</v>
+        <v>32.1690792</v>
       </c>
       <c r="O54">
-        <v>6.75115628</v>
+        <v>7.077197424</v>
       </c>
       <c r="P54">
-        <v>23.93591772</v>
+        <v>25.091881776</v>
       </c>
       <c r="Q54">
-        <v>28.33591772</v>
+        <v>29.491881776</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1850957427602202</v>
+        <v>0.1870872963873993</v>
       </c>
       <c r="T54">
         <v>1.769073672328984</v>
       </c>
       <c r="U54">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y54">
-        <v>9.048169306196867</v>
+        <v>14.80101769223562</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5698,13 +5698,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.09944118626253581</v>
+        <v>0.09619398657378242</v>
       </c>
       <c r="C55">
-        <v>179.0225013614728</v>
+        <v>183.6373178468962</v>
       </c>
       <c r="D55">
-        <v>291.4735013614728</v>
+        <v>296.0883178468962</v>
       </c>
       <c r="E55">
         <v>59.25100000000003</v>
@@ -5731,45 +5731,45 @@
         <v>34.5</v>
       </c>
       <c r="M55">
-        <v>3.886251500000002</v>
+        <v>2.3757462</v>
       </c>
       <c r="N55">
-        <v>30.6137485</v>
+        <v>32.1242538</v>
       </c>
       <c r="O55">
-        <v>6.73502467</v>
+        <v>7.067335836</v>
       </c>
       <c r="P55">
-        <v>23.87872383</v>
+        <v>25.056917964</v>
       </c>
       <c r="Q55">
-        <v>28.27872383</v>
+        <v>29.456917964</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1882682686436932</v>
+        <v>0.1904189501569839</v>
       </c>
       <c r="T55">
         <v>1.802225315268898</v>
       </c>
       <c r="U55">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y55">
-        <v>8.877449130608245</v>
+        <v>14.52175320747645</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5780,13 +5780,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.09928801600016589</v>
+        <v>0.09601535088161317</v>
       </c>
       <c r="C56">
-        <v>176.7651896532171</v>
+        <v>181.4802668474373</v>
       </c>
       <c r="D56">
-        <v>291.9831896532172</v>
+        <v>296.6982668474373</v>
       </c>
       <c r="E56">
         <v>62.01800000000003</v>
@@ -5813,45 +5813,45 @@
         <v>34.5</v>
       </c>
       <c r="M56">
-        <v>3.959577000000001</v>
+        <v>2.420571600000001</v>
       </c>
       <c r="N56">
-        <v>30.540423</v>
+        <v>32.0794284</v>
       </c>
       <c r="O56">
-        <v>6.718893059999999</v>
+        <v>7.057474247999999</v>
       </c>
       <c r="P56">
-        <v>23.82152994</v>
+        <v>25.021954152</v>
       </c>
       <c r="Q56">
-        <v>28.22152994</v>
+        <v>29.421954152</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1915787304351433</v>
+        <v>0.1938954584382895</v>
       </c>
       <c r="T56">
         <v>1.836818333988807</v>
       </c>
       <c r="U56">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y56">
-        <v>8.713051924485871</v>
+        <v>14.25283185178244</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5862,13 +5862,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.09913484573779598</v>
+        <v>0.09583671518944392</v>
       </c>
       <c r="C57">
-        <v>174.5096636113782</v>
+        <v>179.3257340545375</v>
       </c>
       <c r="D57">
-        <v>292.4946636113782</v>
+        <v>297.3107340545376</v>
       </c>
       <c r="E57">
         <v>64.78500000000003</v>
@@ -5895,45 +5895,45 @@
         <v>34.5</v>
       </c>
       <c r="M57">
-        <v>4.032902500000001</v>
+        <v>2.465397</v>
       </c>
       <c r="N57">
-        <v>30.4670975</v>
+        <v>32.034603</v>
       </c>
       <c r="O57">
-        <v>6.70276145</v>
+        <v>7.04761266</v>
       </c>
       <c r="P57">
-        <v>23.76433605</v>
+        <v>24.98699034</v>
       </c>
       <c r="Q57">
-        <v>28.16433605</v>
+        <v>29.38699034</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1950363238617689</v>
+        <v>0.1975264781987643</v>
       </c>
       <c r="T57">
         <v>1.87294882020738</v>
       </c>
       <c r="U57">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y57">
-        <v>8.554632798586127</v>
+        <v>13.99368945447731</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5944,13 +5944,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.09898167547542606</v>
+        <v>0.09565807949727465</v>
       </c>
       <c r="C58">
-        <v>172.255932636407</v>
+        <v>177.1737350952782</v>
       </c>
       <c r="D58">
-        <v>293.0079326364071</v>
+        <v>297.9257350952782</v>
       </c>
       <c r="E58">
         <v>67.55200000000002</v>
@@ -5977,45 +5977,45 @@
         <v>34.5</v>
       </c>
       <c r="M58">
-        <v>4.106228000000002</v>
+        <v>2.5102224</v>
       </c>
       <c r="N58">
-        <v>30.393772</v>
+        <v>31.9897776</v>
       </c>
       <c r="O58">
-        <v>6.686629839999999</v>
+        <v>7.037751072</v>
       </c>
       <c r="P58">
-        <v>23.70714216</v>
+        <v>24.952026528</v>
       </c>
       <c r="Q58">
-        <v>28.10714216</v>
+        <v>29.352026528</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1986510806259683</v>
+        <v>0.2013225443119879</v>
       </c>
       <c r="T58">
         <v>1.910721601254069</v>
       </c>
       <c r="U58">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y58">
-        <v>8.401871498611374</v>
+        <v>13.74380214279021</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6026,13 +6026,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.09882850521305615</v>
+        <v>0.0961908038051054</v>
       </c>
       <c r="C59">
-        <v>170.0040061948544</v>
+        <v>172.5801634206785</v>
       </c>
       <c r="D59">
-        <v>293.5230061948544</v>
+        <v>296.0991634206786</v>
       </c>
       <c r="E59">
         <v>70.31900000000005</v>
@@ -6059,45 +6059,45 @@
         <v>34.5</v>
       </c>
       <c r="M59">
-        <v>4.179553500000002</v>
+        <v>2.807398200000001</v>
       </c>
       <c r="N59">
-        <v>30.3204465</v>
+        <v>31.6926018</v>
       </c>
       <c r="O59">
-        <v>6.67049823</v>
+        <v>6.972372396</v>
       </c>
       <c r="P59">
-        <v>23.64994827</v>
+        <v>24.720229404</v>
       </c>
       <c r="Q59">
-        <v>28.04994827</v>
+        <v>29.120229404</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.2024339656117585</v>
+        <v>0.20529517163978</v>
       </c>
       <c r="T59">
         <v>1.950251255837814</v>
       </c>
       <c r="U59">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y59">
-        <v>8.25447024424977</v>
+        <v>12.28895850969769</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6108,13 +6108,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.09867533495068626</v>
+        <v>0.09602464811293615</v>
       </c>
       <c r="C60">
-        <v>167.7538938199524</v>
+        <v>170.3804595990941</v>
       </c>
       <c r="D60">
-        <v>294.0398938199525</v>
+        <v>296.6664595990941</v>
       </c>
       <c r="E60">
         <v>73.08600000000001</v>
@@ -6141,45 +6141,45 @@
         <v>34.5</v>
       </c>
       <c r="M60">
-        <v>4.252879000000001</v>
+        <v>2.8566508</v>
       </c>
       <c r="N60">
-        <v>30.247121</v>
+        <v>31.6433492</v>
       </c>
       <c r="O60">
-        <v>6.65436662</v>
+        <v>6.961536824</v>
       </c>
       <c r="P60">
-        <v>23.59275438</v>
+        <v>24.681812376</v>
       </c>
       <c r="Q60">
-        <v>27.99275438</v>
+        <v>29.081812376</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2063969879778244</v>
+        <v>0.209456971697467</v>
       </c>
       <c r="T60">
         <v>1.991663274925546</v>
       </c>
       <c r="U60">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y60">
-        <v>8.112151791762708</v>
+        <v>12.07707991470291</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6190,13 +6190,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.09852216468831633</v>
+        <v>0.09585849242076687</v>
       </c>
       <c r="C61">
-        <v>165.5056051122032</v>
+        <v>168.1829337149149</v>
       </c>
       <c r="D61">
-        <v>294.5586051122032</v>
+        <v>297.2359337149149</v>
       </c>
       <c r="E61">
         <v>75.85300000000001</v>
@@ -6223,45 +6223,45 @@
         <v>34.5</v>
       </c>
       <c r="M61">
-        <v>4.326204500000001</v>
+        <v>2.9059034</v>
       </c>
       <c r="N61">
-        <v>30.1737955</v>
+        <v>31.5940966</v>
       </c>
       <c r="O61">
-        <v>6.63823501</v>
+        <v>6.950701252</v>
       </c>
       <c r="P61">
-        <v>23.53556049</v>
+        <v>24.643395348</v>
       </c>
       <c r="Q61">
-        <v>27.93556049</v>
+        <v>29.043395348</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2105533285080886</v>
+        <v>0.2138217863921143</v>
       </c>
       <c r="T61">
         <v>2.035095392505363</v>
       </c>
       <c r="U61">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y61">
-        <v>7.974657693597237</v>
+        <v>11.87238364496218</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6272,13 +6272,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.09836899442594642</v>
+        <v>0.09569233672859763</v>
       </c>
       <c r="C62">
-        <v>163.2591497399726</v>
+        <v>165.9875983344184</v>
       </c>
       <c r="D62">
-        <v>295.0791497399726</v>
+        <v>297.8075983344184</v>
       </c>
       <c r="E62">
         <v>78.62</v>
@@ -6305,45 +6305,45 @@
         <v>34.5</v>
       </c>
       <c r="M62">
-        <v>4.39953</v>
+        <v>2.955156</v>
       </c>
       <c r="N62">
-        <v>30.10047</v>
+        <v>31.544844</v>
       </c>
       <c r="O62">
-        <v>6.6221034</v>
+        <v>6.93986568</v>
       </c>
       <c r="P62">
-        <v>23.4783666</v>
+        <v>24.60497832</v>
       </c>
       <c r="Q62">
-        <v>27.8783666</v>
+        <v>29.00497832</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.214917486064866</v>
+        <v>0.2184048418214941</v>
       </c>
       <c r="T62">
         <v>2.080699115964171</v>
       </c>
       <c r="U62">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y62">
-        <v>7.841746732037286</v>
+        <v>11.67451058421281</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.09873920416357651</v>
+        <v>0.09552618103642836</v>
       </c>
       <c r="C63">
-        <v>159.2371399623696</v>
+        <v>163.7944661207421</v>
       </c>
       <c r="D63">
-        <v>293.8241399623697</v>
+        <v>298.3814661207421</v>
       </c>
       <c r="E63">
         <v>81.38700000000003</v>
@@ -6387,45 +6387,45 @@
         <v>34.5</v>
       </c>
       <c r="M63">
-        <v>4.658521200000001</v>
+        <v>3.004408600000001</v>
       </c>
       <c r="N63">
-        <v>29.8414788</v>
+        <v>31.4955914</v>
       </c>
       <c r="O63">
-        <v>6.565125335999999</v>
+        <v>6.929030108</v>
       </c>
       <c r="P63">
-        <v>23.276353464</v>
+        <v>24.566561292</v>
       </c>
       <c r="Q63">
-        <v>27.67635346399999</v>
+        <v>28.966561292</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2195054465732731</v>
+        <v>0.2232229257344317</v>
       </c>
       <c r="T63">
         <v>2.128641491908045</v>
       </c>
       <c r="U63">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y63">
-        <v>7.40578362077648</v>
+        <v>11.48312516479949</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.09859461390120661</v>
+        <v>0.09536002534425912</v>
       </c>
       <c r="C64">
-        <v>156.9590278534208</v>
+        <v>161.6035498348177</v>
       </c>
       <c r="D64">
-        <v>294.3130278534208</v>
+        <v>298.9575498348177</v>
       </c>
       <c r="E64">
         <v>84.15400000000002</v>
@@ -6469,45 +6469,45 @@
         <v>34.5</v>
       </c>
       <c r="M64">
-        <v>4.734890400000001</v>
+        <v>3.053661200000001</v>
       </c>
       <c r="N64">
-        <v>29.7651096</v>
+        <v>31.4463388</v>
       </c>
       <c r="O64">
-        <v>6.548324112</v>
+        <v>6.918194536</v>
       </c>
       <c r="P64">
-        <v>23.216785488</v>
+        <v>24.528144264</v>
       </c>
       <c r="Q64">
-        <v>27.616785488</v>
+        <v>28.928144264</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2243348786873858</v>
+        <v>0.2282945930112082</v>
       </c>
       <c r="T64">
         <v>2.179107150796335</v>
       </c>
       <c r="U64">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y64">
-        <v>7.28633549786073</v>
+        <v>11.29791346859304</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6518,13 +6518,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.09845002363883669</v>
+        <v>0.09519386965208987</v>
       </c>
       <c r="C65">
-        <v>154.6825453567898</v>
+        <v>159.4148623363179</v>
       </c>
       <c r="D65">
-        <v>294.8035453567899</v>
+        <v>299.5358623363179</v>
       </c>
       <c r="E65">
         <v>86.92100000000002</v>
@@ -6551,45 +6551,45 @@
         <v>34.5</v>
       </c>
       <c r="M65">
-        <v>4.811259600000001</v>
+        <v>3.1029138</v>
       </c>
       <c r="N65">
-        <v>29.6887404</v>
+        <v>31.3970862</v>
       </c>
       <c r="O65">
-        <v>6.531522888</v>
+        <v>6.907358964</v>
       </c>
       <c r="P65">
-        <v>23.157217512</v>
+        <v>24.489727236</v>
       </c>
       <c r="Q65">
-        <v>27.557217512</v>
+        <v>28.889727236</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2294253611860451</v>
+        <v>0.2336404044651077</v>
       </c>
       <c r="T65">
         <v>2.232300683138046</v>
       </c>
       <c r="U65">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y65">
-        <v>7.170679378847069</v>
+        <v>11.11858150877411</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6600,13 +6600,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.09830543337646679</v>
+        <v>0.09502771395992061</v>
       </c>
       <c r="C66">
-        <v>152.4077006340709</v>
+        <v>157.2284165846123</v>
       </c>
       <c r="D66">
-        <v>295.2957006340709</v>
+        <v>300.1164165846124</v>
       </c>
       <c r="E66">
         <v>89.68800000000002</v>
@@ -6633,45 +6633,45 @@
         <v>34.5</v>
       </c>
       <c r="M66">
-        <v>4.887628800000001</v>
+        <v>3.1521664</v>
       </c>
       <c r="N66">
-        <v>29.6123712</v>
+        <v>31.3478336</v>
       </c>
       <c r="O66">
-        <v>6.514721664</v>
+        <v>6.896523392000001</v>
       </c>
       <c r="P66">
-        <v>23.097649536</v>
+        <v>24.451310208</v>
       </c>
       <c r="Q66">
-        <v>27.497649536</v>
+        <v>28.851310208</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2347986482679633</v>
+        <v>0.2392832054442239</v>
       </c>
       <c r="T66">
         <v>2.288449411720962</v>
       </c>
       <c r="U66">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y66">
-        <v>7.058637513552583</v>
+        <v>10.94485367269951</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6682,13 +6682,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.09816084311409688</v>
+        <v>0.09486155826775136</v>
       </c>
       <c r="C67">
-        <v>150.1345019014502</v>
+        <v>155.0442256397364</v>
       </c>
       <c r="D67">
-        <v>295.7895019014503</v>
+        <v>300.6992256397364</v>
       </c>
       <c r="E67">
         <v>92.45500000000004</v>
@@ -6715,45 +6715,45 @@
         <v>34.5</v>
       </c>
       <c r="M67">
-        <v>4.963998000000001</v>
+        <v>3.201419000000001</v>
       </c>
       <c r="N67">
-        <v>29.536002</v>
+        <v>31.298581</v>
       </c>
       <c r="O67">
-        <v>6.49792044</v>
+        <v>6.885687819999999</v>
       </c>
       <c r="P67">
-        <v>23.03808156</v>
+        <v>24.41289318</v>
       </c>
       <c r="Q67">
-        <v>27.43808156</v>
+        <v>28.81289318</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2404789803259911</v>
+        <v>0.2452484521935753</v>
       </c>
       <c r="T67">
         <v>2.347806639080046</v>
       </c>
       <c r="U67">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y67">
-        <v>6.950043090267158</v>
+        <v>10.77647130850413</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6764,13 +6764,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.09801625285172696</v>
+        <v>0.09582796257558208</v>
       </c>
       <c r="C68">
-        <v>147.8629574301638</v>
+        <v>148.9188081019865</v>
       </c>
       <c r="D68">
-        <v>296.2849574301638</v>
+        <v>297.3408081019865</v>
       </c>
       <c r="E68">
         <v>95.22200000000004</v>
@@ -6797,45 +6797,45 @@
         <v>34.5</v>
       </c>
       <c r="M68">
-        <v>5.040367200000001</v>
+        <v>3.65244</v>
       </c>
       <c r="N68">
-        <v>29.4596328</v>
+        <v>30.84756</v>
       </c>
       <c r="O68">
-        <v>6.481119216</v>
+        <v>6.7864632</v>
       </c>
       <c r="P68">
-        <v>22.978513584</v>
+        <v>24.0610968</v>
       </c>
       <c r="Q68">
-        <v>27.378513584</v>
+        <v>28.4610968</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2464934495639029</v>
+        <v>0.2515645958105356</v>
       </c>
       <c r="T68">
         <v>2.410655468048487</v>
       </c>
       <c r="U68">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y68">
-        <v>6.844739407081292</v>
+        <v>9.445740381772184</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6846,13 +6846,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.09787166258935705</v>
+        <v>0.09567896688341282</v>
       </c>
       <c r="C69">
-        <v>145.5930755469582</v>
+        <v>146.6646933692196</v>
       </c>
       <c r="D69">
-        <v>296.7820755469583</v>
+        <v>297.8536933692197</v>
       </c>
       <c r="E69">
         <v>97.98900000000003</v>
@@ -6879,45 +6879,45 @@
         <v>34.5</v>
       </c>
       <c r="M69">
-        <v>5.116736400000001</v>
+        <v>3.70778</v>
       </c>
       <c r="N69">
-        <v>29.3832636</v>
+        <v>30.79222</v>
       </c>
       <c r="O69">
-        <v>6.464317992</v>
+        <v>6.774288400000001</v>
       </c>
       <c r="P69">
-        <v>22.918945608</v>
+        <v>24.0179316</v>
       </c>
       <c r="Q69">
-        <v>27.318945608</v>
+        <v>28.4179316</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2528724320889608</v>
+        <v>0.2582635360103419</v>
       </c>
       <c r="T69">
         <v>2.477313316954409</v>
       </c>
       <c r="U69">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y69">
-        <v>6.742579117423363</v>
+        <v>9.304759182044242</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6928,13 +6928,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.09772707232698714</v>
+        <v>0.09552997119124357</v>
       </c>
       <c r="C70">
-        <v>143.3248646345581</v>
+        <v>144.4123510525707</v>
       </c>
       <c r="D70">
-        <v>297.2808646345582</v>
+        <v>298.3683510525707</v>
       </c>
       <c r="E70">
         <v>100.756</v>
@@ -6961,45 +6961,45 @@
         <v>34.5</v>
       </c>
       <c r="M70">
-        <v>5.193105600000001</v>
+        <v>3.76312</v>
       </c>
       <c r="N70">
-        <v>29.3068944</v>
+        <v>30.73688</v>
       </c>
       <c r="O70">
-        <v>6.447516768</v>
+        <v>6.7621136</v>
       </c>
       <c r="P70">
-        <v>22.859377632</v>
+        <v>23.9747664</v>
       </c>
       <c r="Q70">
-        <v>27.259377632</v>
+        <v>28.3747664</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2596501010218348</v>
+        <v>0.2653811599726362</v>
       </c>
       <c r="T70">
         <v>2.548137281416952</v>
       </c>
       <c r="U70">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y70">
-        <v>6.643423542167136</v>
+        <v>9.16792448819065</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7010,13 +7010,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.09758248206461723</v>
+        <v>0.0953809754990743</v>
       </c>
       <c r="C71">
-        <v>141.0583331321367</v>
+        <v>142.1617903555496</v>
       </c>
       <c r="D71">
-        <v>297.7813331321368</v>
+        <v>298.8847903555496</v>
       </c>
       <c r="E71">
         <v>103.5230000000001</v>
@@ -7043,45 +7043,45 @@
         <v>34.5</v>
       </c>
       <c r="M71">
-        <v>5.269474800000001</v>
+        <v>3.81846</v>
       </c>
       <c r="N71">
-        <v>29.2305252</v>
+        <v>30.68154</v>
       </c>
       <c r="O71">
-        <v>6.430715544</v>
+        <v>6.7499388</v>
       </c>
       <c r="P71">
-        <v>22.799809656</v>
+        <v>23.9316012</v>
       </c>
       <c r="Q71">
-        <v>27.199809656</v>
+        <v>28.3316012</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2668650389181201</v>
+        <v>0.2729579854808849</v>
       </c>
       <c r="T71">
         <v>2.623530533909336</v>
       </c>
       <c r="U71">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y71">
-        <v>6.547142041556018</v>
+        <v>9.035056017347307</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7092,13 +7092,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.09743789180224731</v>
+        <v>0.09523197980690504</v>
       </c>
       <c r="C72">
-        <v>138.7934895357922</v>
+        <v>139.913020545497</v>
       </c>
       <c r="D72">
-        <v>298.2834895357923</v>
+        <v>299.403020545497</v>
       </c>
       <c r="E72">
         <v>106.29</v>
@@ -7125,45 +7125,45 @@
         <v>34.5</v>
       </c>
       <c r="M72">
-        <v>5.345844000000001</v>
+        <v>3.873800000000001</v>
       </c>
       <c r="N72">
-        <v>29.154156</v>
+        <v>30.6262</v>
       </c>
       <c r="O72">
-        <v>6.41391432</v>
+        <v>6.737764</v>
       </c>
       <c r="P72">
-        <v>22.74024168</v>
+        <v>23.888436</v>
       </c>
       <c r="Q72">
-        <v>27.14024168</v>
+        <v>28.288436</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2745609726741577</v>
+        <v>0.2810399326896835</v>
       </c>
       <c r="T72">
         <v>2.703950003234545</v>
       </c>
       <c r="U72">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y72">
-        <v>6.453611440962361</v>
+        <v>8.90598378852806</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7174,13 +7174,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.09729330153987741</v>
+        <v>0.09508298411473581</v>
       </c>
       <c r="C73">
-        <v>136.5303423990282</v>
+        <v>137.6660509541392</v>
       </c>
       <c r="D73">
-        <v>298.7873423990283</v>
+        <v>299.9230509541392</v>
       </c>
       <c r="E73">
         <v>109.057</v>
@@ -7207,45 +7207,45 @@
         <v>34.5</v>
       </c>
       <c r="M73">
-        <v>5.422213200000001</v>
+        <v>3.92914</v>
       </c>
       <c r="N73">
-        <v>29.0777868</v>
+        <v>30.57086</v>
       </c>
       <c r="O73">
-        <v>6.397113096</v>
+        <v>6.7255892</v>
       </c>
       <c r="P73">
-        <v>22.680673704</v>
+        <v>23.8452708</v>
       </c>
       <c r="Q73">
-        <v>27.080673704</v>
+        <v>28.2452708</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2827876604823358</v>
+        <v>0.2896792555680545</v>
       </c>
       <c r="T73">
         <v>2.789915642858044</v>
       </c>
       <c r="U73">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y73">
-        <v>6.362715505174159</v>
+        <v>8.780547397140342</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7256,13 +7256,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.09799111127750751</v>
+        <v>0.09493398842256655</v>
       </c>
       <c r="C74">
-        <v>131.3472774350872</v>
+        <v>135.4208909781483</v>
       </c>
       <c r="D74">
-        <v>296.3712774350873</v>
+        <v>300.4448909781484</v>
       </c>
       <c r="E74">
         <v>111.824</v>
@@ -7289,45 +7289,45 @@
         <v>34.5</v>
       </c>
       <c r="M74">
-        <v>5.797418400000001</v>
+        <v>3.98448</v>
       </c>
       <c r="N74">
-        <v>28.7025816</v>
+        <v>30.51552</v>
       </c>
       <c r="O74">
-        <v>6.314567952</v>
+        <v>6.7134144</v>
       </c>
       <c r="P74">
-        <v>22.388013648</v>
+        <v>23.8021056</v>
       </c>
       <c r="Q74">
-        <v>26.788013648</v>
+        <v>28.2021056</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2916019688482411</v>
+        <v>0.2989356729377377</v>
       </c>
       <c r="T74">
         <v>2.882021685311794</v>
       </c>
       <c r="U74">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y74">
-        <v>5.950924639146279</v>
+        <v>8.658595349957839</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7338,13 +7338,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.09785822101513758</v>
+        <v>0.09478499273039728</v>
       </c>
       <c r="C75">
-        <v>129.0373740010068</v>
+        <v>133.1775500797077</v>
       </c>
       <c r="D75">
-        <v>296.8283740010069</v>
+        <v>300.9685500797077</v>
       </c>
       <c r="E75">
         <v>114.591</v>
@@ -7371,45 +7371,45 @@
         <v>34.5</v>
       </c>
       <c r="M75">
-        <v>5.877938100000001</v>
+        <v>4.039820000000001</v>
       </c>
       <c r="N75">
-        <v>28.6220619</v>
+        <v>30.46018</v>
       </c>
       <c r="O75">
-        <v>6.296853618</v>
+        <v>6.7012396</v>
       </c>
       <c r="P75">
-        <v>22.325208282</v>
+        <v>23.7589404</v>
       </c>
       <c r="Q75">
-        <v>26.725208282</v>
+        <v>28.1589404</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.301069188944954</v>
+        <v>0.3088777508533233</v>
       </c>
       <c r="T75">
         <v>2.980950397576933</v>
       </c>
       <c r="U75">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y75">
-        <v>5.869405123541534</v>
+        <v>8.539984454752933</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7420,13 +7420,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.09772533075276768</v>
+        <v>0.09463599703822803</v>
       </c>
       <c r="C76">
-        <v>126.7288827146643</v>
+        <v>130.9360377870841</v>
       </c>
       <c r="D76">
-        <v>297.2868827146644</v>
+        <v>301.4940377870842</v>
       </c>
       <c r="E76">
         <v>117.358</v>
@@ -7453,45 +7453,45 @@
         <v>34.5</v>
       </c>
       <c r="M76">
-        <v>5.958457800000001</v>
+        <v>4.09516</v>
       </c>
       <c r="N76">
-        <v>28.5415422</v>
+        <v>30.40484</v>
       </c>
       <c r="O76">
-        <v>6.279139283999999</v>
+        <v>6.6890648</v>
       </c>
       <c r="P76">
-        <v>22.262402916</v>
+        <v>23.7157752</v>
       </c>
       <c r="Q76">
-        <v>26.662402916</v>
+        <v>28.1157752</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3112646567414141</v>
+        <v>0.3195846039931847</v>
       </c>
       <c r="T76">
         <v>3.087489010785544</v>
       </c>
       <c r="U76">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y76">
-        <v>5.790088838088271</v>
+        <v>8.424579259418437</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7502,13 +7502,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.09759244049039775</v>
+        <v>0.09448700134605877</v>
       </c>
       <c r="C77">
-        <v>124.4218101301882</v>
+        <v>128.6963636952061</v>
       </c>
       <c r="D77">
-        <v>297.7468101301883</v>
+        <v>302.0213636952061</v>
       </c>
       <c r="E77">
         <v>120.125</v>
@@ -7535,45 +7535,45 @@
         <v>34.5</v>
       </c>
       <c r="M77">
-        <v>6.038977500000001</v>
+        <v>4.1505</v>
       </c>
       <c r="N77">
-        <v>28.4610225</v>
+        <v>30.3495</v>
       </c>
       <c r="O77">
-        <v>6.261424949999999</v>
+        <v>6.67689</v>
       </c>
       <c r="P77">
-        <v>22.19959755</v>
+        <v>23.67261</v>
       </c>
       <c r="Q77">
-        <v>26.59959755</v>
+        <v>28.07261</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.322275761961591</v>
+        <v>0.3311480053842351</v>
       </c>
       <c r="T77">
         <v>3.202550713050843</v>
       </c>
       <c r="U77">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y77">
-        <v>5.712887653580426</v>
+        <v>8.312251535959522</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7584,13 +7584,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.09745955022802785</v>
+        <v>0.0943380056538895</v>
       </c>
       <c r="C78">
-        <v>122.1161628423287</v>
+        <v>126.458537466247</v>
       </c>
       <c r="D78">
-        <v>298.2081628423287</v>
+        <v>302.5505374662471</v>
       </c>
       <c r="E78">
         <v>122.892</v>
@@ -7617,45 +7617,45 @@
         <v>34.5</v>
       </c>
       <c r="M78">
-        <v>6.119497200000001</v>
+        <v>4.20584</v>
       </c>
       <c r="N78">
-        <v>28.3805028</v>
+        <v>30.29416</v>
       </c>
       <c r="O78">
-        <v>6.243710616</v>
+        <v>6.6647152</v>
       </c>
       <c r="P78">
-        <v>22.136792184</v>
+        <v>23.6294448</v>
       </c>
       <c r="Q78">
-        <v>26.536792184</v>
+        <v>28.0294448</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3342044592834494</v>
+        <v>0.343675023557873</v>
       </c>
       <c r="T78">
         <v>3.327200890504919</v>
       </c>
       <c r="U78">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y78">
-        <v>5.63771807919121</v>
+        <v>8.202879805223212</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7666,13 +7666,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.09732665996565794</v>
+        <v>0.09418900996172025</v>
       </c>
       <c r="C79">
-        <v>119.8119474867731</v>
+        <v>124.2225688302162</v>
       </c>
       <c r="D79">
-        <v>298.6709474867732</v>
+        <v>303.0815688302162</v>
       </c>
       <c r="E79">
         <v>125.659</v>
@@ -7699,45 +7699,45 @@
         <v>34.5</v>
       </c>
       <c r="M79">
-        <v>6.2000169</v>
+        <v>4.26118</v>
       </c>
       <c r="N79">
-        <v>28.2999831</v>
+        <v>30.23882</v>
       </c>
       <c r="O79">
-        <v>6.225996282</v>
+        <v>6.6525404</v>
       </c>
       <c r="P79">
-        <v>22.073986818</v>
+        <v>23.5862796</v>
       </c>
       <c r="Q79">
-        <v>26.473986818</v>
+        <v>27.9862796</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.3471704346332954</v>
+        <v>0.3572913476596533</v>
       </c>
       <c r="T79">
         <v>3.462690213824565</v>
       </c>
       <c r="U79">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y79">
-        <v>5.564500961279637</v>
+        <v>8.096348898661873</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7748,13 +7748,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.09719376970328804</v>
+        <v>0.09404001426955101</v>
       </c>
       <c r="C80">
-        <v>117.5091707404643</v>
+        <v>121.9884675855545</v>
       </c>
       <c r="D80">
-        <v>299.1351707404644</v>
+        <v>303.6144675855546</v>
       </c>
       <c r="E80">
         <v>128.426</v>
@@ -7781,45 +7781,45 @@
         <v>34.5</v>
       </c>
       <c r="M80">
-        <v>6.280536600000001</v>
+        <v>4.316520000000001</v>
       </c>
       <c r="N80">
-        <v>28.2194634</v>
+        <v>30.18348</v>
       </c>
       <c r="O80">
-        <v>6.208281948</v>
+        <v>6.6403656</v>
       </c>
       <c r="P80">
-        <v>22.011181452</v>
+        <v>23.5431144</v>
       </c>
       <c r="Q80">
-        <v>26.411181452</v>
+        <v>27.9431144</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.3613151350149457</v>
+        <v>0.3721455194070501</v>
       </c>
       <c r="T80">
         <v>3.610496748355089</v>
       </c>
       <c r="U80">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y80">
-        <v>5.493161205365795</v>
+        <v>7.992549553807232</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7830,13 +7830,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.09706087944091812</v>
+        <v>0.09456883857738174</v>
       </c>
       <c r="C81">
-        <v>115.2078393219216</v>
+        <v>117.3384970496931</v>
       </c>
       <c r="D81">
-        <v>299.6008393219217</v>
+        <v>301.7314970496932</v>
       </c>
       <c r="E81">
         <v>131.193</v>
@@ -7863,45 +7863,45 @@
         <v>34.5</v>
       </c>
       <c r="M81">
-        <v>6.361056300000001</v>
+        <v>4.612312300000001</v>
       </c>
       <c r="N81">
-        <v>28.1389437</v>
+        <v>29.8876877</v>
       </c>
       <c r="O81">
-        <v>6.190567614</v>
+        <v>6.575291294</v>
       </c>
       <c r="P81">
-        <v>21.948376086</v>
+        <v>23.312396406</v>
       </c>
       <c r="Q81">
-        <v>26.348376086</v>
+        <v>27.712396406</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.3768069497186578</v>
+        <v>0.3884143741780084</v>
       </c>
       <c r="T81">
         <v>3.772380095698043</v>
       </c>
       <c r="U81">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V81">
         <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y81">
-        <v>5.423627519221924</v>
+        <v>7.479979185277631</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7912,13 +7912,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.09692798917854821</v>
+        <v>0.0944284228852125</v>
       </c>
       <c r="C82">
-        <v>112.9079599915646</v>
+        <v>115.0691902474706</v>
       </c>
       <c r="D82">
-        <v>300.0679599915646</v>
+        <v>302.2291902474707</v>
       </c>
       <c r="E82">
         <v>133.96</v>
@@ -7945,45 +7945,45 @@
         <v>34.5</v>
       </c>
       <c r="M82">
-        <v>6.441576000000001</v>
+        <v>4.670696000000001</v>
       </c>
       <c r="N82">
-        <v>28.058424</v>
+        <v>29.829304</v>
       </c>
       <c r="O82">
-        <v>6.17285328</v>
+        <v>6.56244688</v>
       </c>
       <c r="P82">
-        <v>21.88557072</v>
+        <v>23.26685712</v>
       </c>
       <c r="Q82">
-        <v>26.28557072</v>
+        <v>27.66685712</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.3938479458927411</v>
+        <v>0.4063101144260626</v>
       </c>
       <c r="T82">
         <v>3.950451777775293</v>
       </c>
       <c r="U82">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V82">
         <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y82">
-        <v>5.35583217523165</v>
+        <v>7.38647944546166</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.09679509891617831</v>
+        <v>0.09428800719304324</v>
       </c>
       <c r="C83">
-        <v>110.6095395520406</v>
+        <v>112.8015280051611</v>
       </c>
       <c r="D83">
-        <v>300.5365395520407</v>
+        <v>302.7285280051611</v>
       </c>
       <c r="E83">
         <v>136.727</v>
@@ -8027,45 +8027,45 @@
         <v>34.5</v>
       </c>
       <c r="M83">
-        <v>6.522095700000001</v>
+        <v>4.729079700000001</v>
       </c>
       <c r="N83">
-        <v>27.9779043</v>
+        <v>29.7709203</v>
       </c>
       <c r="O83">
-        <v>6.155138946</v>
+        <v>6.549602466000001</v>
       </c>
       <c r="P83">
-        <v>21.822765354</v>
+        <v>23.221317834</v>
       </c>
       <c r="Q83">
-        <v>26.222765354</v>
+        <v>27.621317834</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4126827311377806</v>
+        <v>0.4260896168054908</v>
       </c>
       <c r="T83">
         <v>4.147267847439622</v>
       </c>
       <c r="U83">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V83">
         <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y83">
-        <v>5.289710790352247</v>
+        <v>7.295288341196701</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8076,13 +8076,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.0966622086538084</v>
+        <v>0.09414759150087397</v>
       </c>
       <c r="C84">
-        <v>108.3125848485551</v>
+        <v>110.5355184875932</v>
       </c>
       <c r="D84">
-        <v>301.0065848485552</v>
+        <v>303.2295184875933</v>
       </c>
       <c r="E84">
         <v>139.4940000000001</v>
@@ -8109,45 +8109,45 @@
         <v>34.5</v>
       </c>
       <c r="M84">
-        <v>6.602615400000002</v>
+        <v>4.787463400000002</v>
       </c>
       <c r="N84">
-        <v>27.8973846</v>
+        <v>29.7125366</v>
       </c>
       <c r="O84">
-        <v>6.137424611999999</v>
+        <v>6.536758052</v>
       </c>
       <c r="P84">
-        <v>21.759959988</v>
+        <v>23.175778548</v>
       </c>
       <c r="Q84">
-        <v>26.159959988</v>
+        <v>27.575778548</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.4336102702989356</v>
+        <v>0.4480668416715222</v>
       </c>
       <c r="T84">
         <v>4.365952369288876</v>
       </c>
       <c r="U84">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V84">
         <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y84">
-        <v>5.225202122177219</v>
+        <v>7.206321410206496</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8158,13 +8158,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.0965293183914385</v>
+        <v>0.09400717580870473</v>
       </c>
       <c r="C85">
-        <v>106.0171027692045</v>
+        <v>108.2711699137337</v>
       </c>
       <c r="D85">
-        <v>301.4781027692046</v>
+        <v>303.7321699137338</v>
       </c>
       <c r="E85">
         <v>142.2610000000001</v>
@@ -8191,45 +8191,45 @@
         <v>34.5</v>
       </c>
       <c r="M85">
-        <v>6.683135100000002</v>
+        <v>4.845847100000001</v>
       </c>
       <c r="N85">
-        <v>27.8168649</v>
+        <v>29.6541529</v>
       </c>
       <c r="O85">
-        <v>6.119710277999999</v>
+        <v>6.523913638</v>
       </c>
       <c r="P85">
-        <v>21.697154622</v>
+        <v>23.130239262</v>
       </c>
       <c r="Q85">
-        <v>26.097154622</v>
+        <v>27.530239262</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.4569998728908148</v>
+        <v>0.4726296224041456</v>
       </c>
       <c r="T85">
         <v>4.610364481943925</v>
       </c>
       <c r="U85">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V85">
         <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y85">
-        <v>5.162247879741349</v>
+        <v>7.119498260685937</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8240,13 +8240,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.09639642812906858</v>
+        <v>0.09386676011653547</v>
       </c>
       <c r="C86">
-        <v>103.7231002453135</v>
+        <v>106.0084905571371</v>
       </c>
       <c r="D86">
-        <v>301.9511002453135</v>
+        <v>304.2364905571371</v>
       </c>
       <c r="E86">
         <v>145.028</v>
@@ -8273,45 +8273,45 @@
         <v>34.5</v>
       </c>
       <c r="M86">
-        <v>6.763654800000001</v>
+        <v>4.904230800000001</v>
       </c>
       <c r="N86">
-        <v>27.7363452</v>
+        <v>29.5957692</v>
       </c>
       <c r="O86">
-        <v>6.101995944</v>
+        <v>6.511069224</v>
       </c>
       <c r="P86">
-        <v>21.634349256</v>
+        <v>23.084699976</v>
       </c>
       <c r="Q86">
-        <v>26.034349256</v>
+        <v>27.484699976</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.4833131758066785</v>
+        <v>0.5002627507283466</v>
       </c>
       <c r="T86">
         <v>4.885328108680852</v>
       </c>
       <c r="U86">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V86">
         <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y86">
-        <v>5.100792547839667</v>
+        <v>7.034742329011105</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8322,13 +8322,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.09626353786669868</v>
+        <v>0.09372634442436621</v>
       </c>
       <c r="C87">
-        <v>101.4305842517732</v>
+        <v>103.7474887463989</v>
       </c>
       <c r="D87">
-        <v>302.4255842517732</v>
+        <v>304.742488746399</v>
       </c>
       <c r="E87">
         <v>147.795</v>
@@ -8355,45 +8355,45 @@
         <v>34.5</v>
       </c>
       <c r="M87">
-        <v>6.844174500000001</v>
+        <v>4.962614500000001</v>
       </c>
       <c r="N87">
-        <v>27.6558255</v>
+        <v>29.5373855</v>
       </c>
       <c r="O87">
-        <v>6.08428161</v>
+        <v>6.49822481</v>
       </c>
       <c r="P87">
-        <v>21.57154389</v>
+        <v>23.03916069</v>
       </c>
       <c r="Q87">
-        <v>25.97154389</v>
+        <v>27.43916069</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.5131349191113245</v>
+        <v>0.5315802961624414</v>
       </c>
       <c r="T87">
         <v>5.19695355231604</v>
       </c>
       <c r="U87">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V87">
         <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y87">
-        <v>5.040783223747436</v>
+        <v>6.951980654552151</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8404,13 +8404,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.09613064760432877</v>
+        <v>0.09358592873219695</v>
       </c>
       <c r="C88">
-        <v>99.13956180738575</v>
+        <v>101.4881728656149</v>
       </c>
       <c r="D88">
-        <v>302.9015618073858</v>
+        <v>305.250172865615</v>
       </c>
       <c r="E88">
         <v>150.562</v>
@@ -8437,45 +8437,45 @@
         <v>34.5</v>
       </c>
       <c r="M88">
-        <v>6.924694200000001</v>
+        <v>5.020998200000001</v>
       </c>
       <c r="N88">
-        <v>27.5753058</v>
+        <v>29.4790018</v>
       </c>
       <c r="O88">
-        <v>6.066567276</v>
+        <v>6.485380396</v>
       </c>
       <c r="P88">
-        <v>21.508738524</v>
+        <v>22.993621404</v>
       </c>
       <c r="Q88">
-        <v>25.908738524</v>
+        <v>27.393621404</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.5472169114594911</v>
+        <v>0.5673717766585497</v>
       </c>
       <c r="T88">
         <v>5.553096916470539</v>
       </c>
       <c r="U88">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V88">
         <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y88">
-        <v>4.982169465331769</v>
+        <v>6.871143670196893</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8486,13 +8486,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.09599775734195887</v>
+        <v>0.0934455130400277</v>
       </c>
       <c r="C89">
-        <v>96.8500399752092</v>
+        <v>99.23055135484373</v>
       </c>
       <c r="D89">
-        <v>303.3790399752093</v>
+        <v>305.7595513548438</v>
       </c>
       <c r="E89">
         <v>153.329</v>
@@ -8519,45 +8519,45 @@
         <v>34.5</v>
       </c>
       <c r="M89">
-        <v>7.005213900000001</v>
+        <v>5.079381900000001</v>
       </c>
       <c r="N89">
-        <v>27.4947861</v>
+        <v>29.4206181</v>
       </c>
       <c r="O89">
-        <v>6.048852942</v>
+        <v>6.472535982</v>
       </c>
       <c r="P89">
-        <v>21.445933158</v>
+        <v>22.948082118</v>
       </c>
       <c r="Q89">
-        <v>25.845933158</v>
+        <v>27.348082118</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.5865422872458373</v>
+        <v>0.6086696387694438</v>
       </c>
       <c r="T89">
         <v>5.964031567418038</v>
       </c>
       <c r="U89">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V89">
         <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y89">
-        <v>4.9249031496383</v>
+        <v>6.792165007321066</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.09586486707958894</v>
+        <v>0.09330509734785845</v>
       </c>
       <c r="C90">
-        <v>94.56202586290749</v>
+        <v>96.97463271057461</v>
       </c>
       <c r="D90">
-        <v>303.8580258629075</v>
+        <v>306.2706327105747</v>
       </c>
       <c r="E90">
         <v>156.096</v>
@@ -8601,45 +8601,45 @@
         <v>34.5</v>
       </c>
       <c r="M90">
-        <v>7.085733600000001</v>
+        <v>5.137765600000001</v>
       </c>
       <c r="N90">
-        <v>27.4142664</v>
+        <v>29.3622344</v>
       </c>
       <c r="O90">
-        <v>6.031138608</v>
+        <v>6.459691567999999</v>
       </c>
       <c r="P90">
-        <v>21.383127792</v>
+        <v>22.902542832</v>
       </c>
       <c r="Q90">
-        <v>25.783127792</v>
+        <v>27.302542832</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.6324218923299079</v>
+        <v>0.6568504778988205</v>
       </c>
       <c r="T90">
         <v>6.443455326856788</v>
       </c>
       <c r="U90">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V90">
         <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y90">
-        <v>4.868938341119682</v>
+        <v>6.714981314056055</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8650,13 +8650,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.09573197681721902</v>
+        <v>0.09316468165568918</v>
       </c>
       <c r="C91">
-        <v>92.27552662310256</v>
+        <v>94.72042548620016</v>
       </c>
       <c r="D91">
-        <v>304.3385266231026</v>
+        <v>306.7834254862002</v>
       </c>
       <c r="E91">
         <v>158.863</v>
@@ -8683,45 +8683,45 @@
         <v>34.5</v>
       </c>
       <c r="M91">
-        <v>7.166253300000001</v>
+        <v>5.196149300000001</v>
       </c>
       <c r="N91">
-        <v>27.3337467</v>
+        <v>29.3038507</v>
       </c>
       <c r="O91">
-        <v>6.013424274</v>
+        <v>6.446847153999999</v>
       </c>
       <c r="P91">
-        <v>21.320322426</v>
+        <v>22.857003546</v>
       </c>
       <c r="Q91">
-        <v>25.720322426</v>
+        <v>27.257003546</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.6866432437929003</v>
+        <v>0.7137914695971744</v>
       </c>
       <c r="T91">
         <v>7.010047042557128</v>
       </c>
       <c r="U91">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V91">
         <v>0.22</v>
       </c>
       <c r="W91">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y91">
-        <v>4.814231168747551</v>
+        <v>6.639532085808233</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.09559908655484912</v>
+        <v>0.09302426596351993</v>
       </c>
       <c r="C92">
-        <v>89.99054945373095</v>
+        <v>92.46793829249302</v>
       </c>
       <c r="D92">
-        <v>304.820549453731</v>
+        <v>307.2979382924931</v>
       </c>
       <c r="E92">
         <v>161.6300000000001</v>
@@ -8765,45 +8765,45 @@
         <v>34.5</v>
       </c>
       <c r="M92">
-        <v>7.246773000000002</v>
+        <v>5.254533000000001</v>
       </c>
       <c r="N92">
-        <v>27.253227</v>
+        <v>29.245467</v>
       </c>
       <c r="O92">
-        <v>5.99570994</v>
+        <v>6.434002739999999</v>
       </c>
       <c r="P92">
-        <v>21.25751706</v>
+        <v>22.81146426</v>
       </c>
       <c r="Q92">
-        <v>25.65751706</v>
+        <v>27.21146426</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.7517088655484914</v>
+        <v>0.7821206596351994</v>
       </c>
       <c r="T92">
         <v>7.689957101397536</v>
       </c>
       <c r="U92">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V92">
         <v>0.22</v>
       </c>
       <c r="W92">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y92">
-        <v>4.760739711317022</v>
+        <v>6.565759507077031</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.09546619629247921</v>
+        <v>0.09288385027135067</v>
       </c>
       <c r="C93">
-        <v>87.70710159840294</v>
+        <v>90.21717979808821</v>
       </c>
       <c r="D93">
-        <v>305.304101598403</v>
+        <v>307.8141797980883</v>
       </c>
       <c r="E93">
         <v>164.397</v>
@@ -8847,45 +8847,45 @@
         <v>34.5</v>
       </c>
       <c r="M93">
-        <v>7.327292700000002</v>
+        <v>5.312916700000001</v>
       </c>
       <c r="N93">
-        <v>27.1727073</v>
+        <v>29.1870833</v>
       </c>
       <c r="O93">
-        <v>5.977995605999999</v>
+        <v>6.421158326</v>
       </c>
       <c r="P93">
-        <v>21.194711694</v>
+        <v>22.765924974</v>
       </c>
       <c r="Q93">
-        <v>25.594711694</v>
+        <v>27.165924974</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.8312335143608803</v>
+        <v>0.8656341141261189</v>
       </c>
       <c r="T93">
         <v>8.520958284424703</v>
       </c>
       <c r="U93">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V93">
         <v>0.22</v>
       </c>
       <c r="W93">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y93">
-        <v>4.708423890313538</v>
+        <v>6.493608303702557</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8896,13 +8896,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.09533330603010931</v>
+        <v>0.09381983457918142</v>
       </c>
       <c r="C94">
-        <v>85.42519034676545</v>
+        <v>84.04140310734712</v>
       </c>
       <c r="D94">
-        <v>305.7891903467655</v>
+        <v>304.4054031073472</v>
       </c>
       <c r="E94">
         <v>167.164</v>
@@ -8929,37 +8929,37 @@
         <v>34.5</v>
       </c>
       <c r="M94">
-        <v>7.407812400000002</v>
+        <v>5.7531464</v>
       </c>
       <c r="N94">
-        <v>27.0921876</v>
+        <v>28.7468536</v>
       </c>
       <c r="O94">
-        <v>5.960281272</v>
+        <v>6.324307792</v>
       </c>
       <c r="P94">
-        <v>21.131906328</v>
+        <v>22.422545808</v>
       </c>
       <c r="Q94">
-        <v>25.531906328</v>
+        <v>26.822545808</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.9306393253763668</v>
+        <v>0.9700259322397683</v>
       </c>
       <c r="T94">
         <v>9.559709763208662</v>
       </c>
       <c r="U94">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V94">
         <v>0.22</v>
       </c>
       <c r="W94">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>4.657245369766652</v>
+        <v>5.996718595584496</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.09520041576773938</v>
+        <v>0.09369111888701216</v>
       </c>
       <c r="C95">
-        <v>83.14482303486847</v>
+        <v>81.73869073236943</v>
       </c>
       <c r="D95">
-        <v>306.2758230348686</v>
+        <v>304.8696907323695</v>
       </c>
       <c r="E95">
         <v>169.9310000000001</v>
@@ -9011,37 +9011,37 @@
         <v>34.5</v>
       </c>
       <c r="M95">
-        <v>7.488332100000003</v>
+        <v>5.815680600000001</v>
       </c>
       <c r="N95">
-        <v>27.0116679</v>
+        <v>28.6843194</v>
       </c>
       <c r="O95">
-        <v>5.942566938</v>
+        <v>6.310550268</v>
       </c>
       <c r="P95">
-        <v>21.069100962</v>
+        <v>22.373769132</v>
       </c>
       <c r="Q95">
-        <v>25.469100962</v>
+        <v>26.773769132</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.058446796681992</v>
+        <v>1.104243984100175</v>
       </c>
       <c r="T95">
         <v>10.89524737878804</v>
       </c>
       <c r="U95">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V95">
         <v>0.22</v>
       </c>
       <c r="W95">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>4.60716746256486</v>
+        <v>5.932237750470684</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9060,13 +9060,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.09506752550536948</v>
+        <v>0.09356240319484291</v>
       </c>
       <c r="C96">
-        <v>80.8660070455345</v>
+        <v>79.4373968097679</v>
       </c>
       <c r="D96">
-        <v>306.7640070455346</v>
+        <v>305.335396809768</v>
       </c>
       <c r="E96">
         <v>172.6980000000001</v>
@@ -9093,37 +9093,37 @@
         <v>34.5</v>
       </c>
       <c r="M96">
-        <v>7.568851800000003</v>
+        <v>5.878214800000001</v>
       </c>
       <c r="N96">
-        <v>26.9311482</v>
+        <v>28.6217852</v>
       </c>
       <c r="O96">
-        <v>5.924852603999999</v>
+        <v>6.296792743999999</v>
       </c>
       <c r="P96">
-        <v>21.006295596</v>
+        <v>22.324992456</v>
       </c>
       <c r="Q96">
-        <v>25.406295596</v>
+        <v>26.724992456</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.228856758422826</v>
+        <v>1.283201386580716</v>
       </c>
       <c r="T96">
         <v>12.67596419956054</v>
       </c>
       <c r="U96">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V96">
         <v>0.22</v>
       </c>
       <c r="W96">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>4.558155042750339</v>
+        <v>5.869128838231633</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9142,13 +9142,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.09493463524299958</v>
+        <v>0.09343368750267367</v>
       </c>
       <c r="C97">
-        <v>78.58874980873236</v>
+        <v>77.13752784979147</v>
       </c>
       <c r="D97">
-        <v>307.2537498087324</v>
+        <v>305.8025278497915</v>
       </c>
       <c r="E97">
         <v>175.4650000000001</v>
@@ -9175,37 +9175,37 @@
         <v>34.5</v>
       </c>
       <c r="M97">
-        <v>7.649371500000002</v>
+        <v>5.940749000000001</v>
       </c>
       <c r="N97">
-        <v>26.8506285</v>
+        <v>28.559251</v>
       </c>
       <c r="O97">
-        <v>5.90713827</v>
+        <v>6.28303522</v>
       </c>
       <c r="P97">
-        <v>20.94349023</v>
+        <v>22.27621578</v>
       </c>
       <c r="Q97">
-        <v>25.34349023</v>
+        <v>26.67621578</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.467430704859993</v>
+        <v>1.533741750053475</v>
       </c>
       <c r="T97">
         <v>15.16896774864204</v>
       </c>
       <c r="U97">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V97">
         <v>0.22</v>
       </c>
       <c r="W97">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>4.510174463352969</v>
+        <v>5.8073485346713</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9224,13 +9224,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.1212343849806296</v>
+        <v>0.0933049718105044</v>
       </c>
       <c r="C98">
-        <v>2.05188426390697</v>
+        <v>74.83909040259005</v>
       </c>
       <c r="D98">
-        <v>233.483884263907</v>
+        <v>306.2710904025901</v>
       </c>
       <c r="E98">
         <v>178.2320000000001</v>
@@ -9257,45 +9257,45 @@
         <v>34.5</v>
       </c>
       <c r="M98">
-        <v>17.1067008</v>
+        <v>6.003283200000001</v>
       </c>
       <c r="N98">
-        <v>17.3932992</v>
+        <v>28.4967168</v>
       </c>
       <c r="O98">
-        <v>3.826525824</v>
+        <v>6.269277696</v>
       </c>
       <c r="P98">
-        <v>13.566773376</v>
+        <v>22.227439104</v>
       </c>
       <c r="Q98">
-        <v>17.966773376</v>
+        <v>26.627439104</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.82529162451574</v>
+        <v>1.909552295262608</v>
       </c>
       <c r="T98">
         <v>18.90847307226425</v>
       </c>
       <c r="U98">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V98">
         <v>0.22</v>
       </c>
       <c r="W98">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y98">
-        <v>2.016753575300738</v>
+        <v>5.746855320768474</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9306,13 +9306,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.1295481147182598</v>
+        <v>0.09317625611833516</v>
       </c>
       <c r="C99">
-        <v>-17.18582099135642</v>
+        <v>72.54209105852033</v>
       </c>
       <c r="D99">
-        <v>217.0131790086436</v>
+        <v>306.7410910585204</v>
       </c>
       <c r="E99">
         <v>180.9990000000001</v>
@@ -9339,45 +9339,45 @@
         <v>34.5</v>
       </c>
       <c r="M99">
-        <v>20.1836048</v>
+        <v>6.065817400000001</v>
       </c>
       <c r="N99">
-        <v>14.3163952</v>
+        <v>28.4341826</v>
       </c>
       <c r="O99">
-        <v>3.149606943999999</v>
+        <v>6.255520172</v>
       </c>
       <c r="P99">
-        <v>11.166788256</v>
+        <v>22.178662428</v>
       </c>
       <c r="Q99">
-        <v>15.566788256</v>
+        <v>26.578662428</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.421726490608656</v>
+        <v>2.535903203944503</v>
       </c>
       <c r="T99">
         <v>25.14098194496798</v>
       </c>
       <c r="U99">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V99">
         <v>0.22</v>
       </c>
       <c r="W99">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y99">
-        <v>1.709308141031378</v>
+        <v>5.687609389626531</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9388,13 +9388,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.1297748044558898</v>
+        <v>0.09304754042616589</v>
       </c>
       <c r="C100">
-        <v>-20.36944355887397</v>
+        <v>70.24653644845586</v>
       </c>
       <c r="D100">
-        <v>216.5965564411261</v>
+        <v>307.2125364484559</v>
       </c>
       <c r="E100">
         <v>183.766</v>
@@ -9421,45 +9421,45 @@
         <v>34.5</v>
       </c>
       <c r="M100">
-        <v>20.39168320000001</v>
+        <v>6.128351600000001</v>
       </c>
       <c r="N100">
-        <v>14.10831679999999</v>
+        <v>28.3716484</v>
       </c>
       <c r="O100">
-        <v>3.103829695999999</v>
+        <v>6.241762648</v>
       </c>
       <c r="P100">
-        <v>11.004487104</v>
+        <v>22.129885752</v>
       </c>
       <c r="Q100">
-        <v>15.40448710399999</v>
+        <v>26.529885752</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.614596222794489</v>
+        <v>3.788605021308291</v>
       </c>
       <c r="T100">
         <v>37.60599969037545</v>
       </c>
       <c r="U100">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V100">
         <v>0.22</v>
       </c>
       <c r="W100">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y100">
-        <v>1.691866221224935</v>
+        <v>5.629572559120138</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9470,13 +9470,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.1300014941935199</v>
+        <v>0.09291882473399662</v>
       </c>
       <c r="C101">
-        <v>-23.55146952498268</v>
+        <v>67.95243324409768</v>
       </c>
       <c r="D101">
-        <v>216.1815304750174</v>
+        <v>307.6854332440977</v>
       </c>
       <c r="E101">
         <v>186.533</v>
@@ -9503,45 +9503,45 @@
         <v>34.5</v>
       </c>
       <c r="M101">
-        <v>20.5997616</v>
+        <v>6.190885800000001</v>
       </c>
       <c r="N101">
-        <v>13.9002384</v>
+        <v>28.3091142</v>
       </c>
       <c r="O101">
-        <v>3.058052447999999</v>
+        <v>6.228005124</v>
       </c>
       <c r="P101">
-        <v>10.842185952</v>
+        <v>22.081109076</v>
       </c>
       <c r="Q101">
-        <v>15.242185952</v>
+        <v>26.481109076</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>7.193205419351987</v>
+        <v>7.546710473399656</v>
       </c>
       <c r="T101">
         <v>75.00105292659785</v>
       </c>
       <c r="U101">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V101">
         <v>0.22</v>
       </c>
       <c r="W101">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y101">
-        <v>1.674776663434784</v>
+        <v>5.572708189836097</v>
       </c>
       <c r="Z101">
         <v>0</v>
